--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13867CC3-A395-4038-A246-EA55069AA033}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,66 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Nom de la tâche</t>
+    <t>Nom de la tâche</t>
   </si>
   <si>
-    <t xml:space="preserve">Début</t>
+    <t>Début</t>
   </si>
   <si>
-    <t xml:space="preserve">Fin</t>
+    <t>Fin</t>
   </si>
   <si>
-    <t xml:space="preserve">Durée (jours)</t>
+    <t>Durée (jours)</t>
   </si>
   <si>
-    <t xml:space="preserve">manger</t>
+    <t>Ou, Cliquez ici pour créer votre chronologie dans Smartsheet</t>
   </si>
   <si>
-    <t xml:space="preserve">dormir</t>
+    <t>Créez un diagramme de Gantt dans Smartsheet</t>
   </si>
   <si>
-    <t xml:space="preserve">Tâche 3</t>
+    <t>`</t>
   </si>
   <si>
-    <t xml:space="preserve">Tâche 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ou, Cliquez ici pour créer votre chronologie dans Smartsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créez un diagramme de Gantt dans Smartsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track Your Project with This Interactive Gantt Chart</t>
+    <t>Track Your Project with This Interactive Gantt Chart</t>
   </si>
   <si>
     <r>
@@ -87,10 +56,9 @@
         <sz val="22"/>
         <color rgb="FF1F497D"/>
         <rFont val="Proxima Nova Regular It"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">✓</t>
+      <t>✓</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +77,6 @@
         <sz val="22"/>
         <color rgb="FF1F497D"/>
         <rFont val="Proxima Nova Regular It"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">✓ </t>
@@ -122,7 +89,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">No Credit Card Required</t>
+      <t>No Credit Card Required</t>
     </r>
   </si>
   <si>
@@ -131,7 +98,6 @@
         <sz val="22"/>
         <color rgb="FF1F497D"/>
         <rFont val="Proxima Nova Regular It"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">✓ </t>
@@ -144,40 +110,61 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Nothing to Install</t>
+      <t>Nothing to Install</t>
     </r>
+  </si>
+  <si>
+    <t>Travail préparatoire</t>
+  </si>
+  <si>
+    <t>Debiaisage notes</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Qualité</t>
+  </si>
+  <si>
+    <t>Mise en forme matrice</t>
+  </si>
+  <si>
+    <t>Durée (jours hommes)</t>
+  </si>
+  <si>
+    <t>Metrique Cosinus</t>
+  </si>
+  <si>
+    <t>Predire notes</t>
+  </si>
+  <si>
+    <t>Filtrage Collaboratif</t>
+  </si>
+  <si>
+    <t>Taches manageriales</t>
+  </si>
+  <si>
+    <t>Tâche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -208,7 +195,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -223,7 +210,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="20"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -231,7 +218,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -246,7 +233,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="27"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -257,7 +244,6 @@
       <sz val="22"/>
       <color rgb="FF1F497D"/>
       <name val="Proxima Nova Regular It"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -266,19 +252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -320,160 +293,92 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -532,15 +437,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -549,26 +472,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -582,14 +505,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.344238040440572"/>
-          <c:y val="0.00961797752808989"/>
+          <c:x val="0.34423804044057199"/>
+          <c:y val="9.6179775280898893E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -616,103 +540,127 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$B$17</c:f>
+              <c:f>Sheet1!$B$5:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>manger</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>dormir</c:v>
+                  <c:v>Travail préparatoire</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tâche 3</c:v>
+                  <c:v>Mise en forme matrice</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tâche 4</c:v>
+                  <c:v>Metrique Cosinus</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tâche 5</c:v>
+                  <c:v>Debiaisage notes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Tâche 6</c:v>
+                  <c:v>Filtrage Collaboratif</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Tâche 7</c:v>
+                  <c:v>Optimisation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tâche 8</c:v>
+                  <c:v>Predire notes</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Tâche 9</c:v>
+                  <c:v>Evaluation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Tâche 10</c:v>
+                  <c:v>Taches manageriales</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Tâche 11</c:v>
+                  <c:v>Qualité</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Tâche 12</c:v>
+                  <c:v>Tâche</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tâche</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tâche</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$17</c:f>
+              <c:f>Sheet1!$C$5:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>42020</c:v>
-                </c:pt>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>42026</c:v>
+                  <c:v>43471.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>43472.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42031</c:v>
+                  <c:v>43472.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42032</c:v>
+                  <c:v>43472.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42040</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42032</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42039</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42042</c:v>
+                  <c:v>43482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42044</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42046</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42050</c:v>
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F80-41B1-8552-9AA6CD8A1860}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -734,213 +682,235 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4846-4A28-BCDB-717C86E0AF6E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4846-4A28-BCDB-717C86E0AF6E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4846-4A28-BCDB-717C86E0AF6E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4846-4A28-BCDB-717C86E0AF6E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$B$17</c:f>
+              <c:f>Sheet1!$B$5:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>manger</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>dormir</c:v>
+                  <c:v>Travail préparatoire</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tâche 3</c:v>
+                  <c:v>Mise en forme matrice</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tâche 4</c:v>
+                  <c:v>Metrique Cosinus</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tâche 5</c:v>
+                  <c:v>Debiaisage notes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Tâche 6</c:v>
+                  <c:v>Filtrage Collaboratif</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Tâche 7</c:v>
+                  <c:v>Optimisation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tâche 8</c:v>
+                  <c:v>Predire notes</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Tâche 9</c:v>
+                  <c:v>Evaluation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Tâche 10</c:v>
+                  <c:v>Taches manageriales</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Tâche 11</c:v>
+                  <c:v>Qualité</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Tâche 12</c:v>
+                  <c:v>Tâche</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tâche</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tâche</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$17</c:f>
+              <c:f>Sheet1!$E$5:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7F80-41B1-8552-9AA6CD8A1860}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
         <c:axId val="72020999"/>
@@ -952,7 +922,7 @@
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -967,20 +937,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6451088"/>
@@ -988,15 +960,17 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="6451088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="42020"/>
+          <c:max val="43483"/>
+          <c:min val="43471"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
@@ -1007,7 +981,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="M/D;@" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1021,30 +995,32 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72020999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1053,41 +1029,53 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>538560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>533160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>46200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6672600" y="149760"/>
-        <a:ext cx="13138920" cy="4004640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1101,22 +1089,28 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>313725</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPr id="3" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1137,30 +1131,323 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:IX70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:IY72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="17" min="6" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.2703703703704"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="18" width="11.296875"/>
+    <col min="19" max="19" width="21.3984375"/>
+    <col min="20" max="1026" width="11.296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:259">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1419,8 +1706,9 @@
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:259">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1679,8 +1967,9 @@
       <c r="IV2" s="1"/>
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
+      <c r="IY2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:259" ht="21" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1699,11 +1988,11 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1939,8 +2228,9 @@
       <c r="IV3" s="1"/>
       <c r="IW3" s="1"/>
       <c r="IX3" s="1"/>
+      <c r="IY3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1954,7 +2244,9 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1967,11 +2259,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -2207,14 +2499,15 @@
       <c r="IV4" s="1"/>
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
+      <c r="IY4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:259">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2227,11 +2520,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -2467,22 +2760,25 @@
       <c r="IV5" s="1"/>
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
+      <c r="IY5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:259">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>42020</v>
+      <c r="C6" s="23">
+        <v>43471.5</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>42025</v>
+      <c r="D6" s="23">
+        <v>43472</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>5</v>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2495,11 +2791,11 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -2735,22 +3031,25 @@
       <c r="IV6" s="1"/>
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
+      <c r="IY6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:259">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>42026</v>
+      <c r="C7" s="23">
+        <v>43472.5</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>42027</v>
+      <c r="D7" s="23">
+        <v>43472</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
+      <c r="E7" s="3">
+        <v>0.5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2763,11 +3062,11 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -3003,22 +3302,25 @@
       <c r="IV7" s="1"/>
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
+      <c r="IY7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:259">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>42026</v>
+      <c r="C8" s="23">
+        <v>43472.5</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>42032</v>
+      <c r="D8" s="23">
+        <v>43473</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>6</v>
+      <c r="E8" s="3">
+        <v>0.5</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3031,11 +3333,11 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -3271,22 +3573,25 @@
       <c r="IV8" s="1"/>
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
+      <c r="IY8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:259">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>42031</v>
+      <c r="C9" s="23">
+        <v>43472.5</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>42033</v>
+      <c r="D9" s="23">
+        <v>43472</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3299,11 +3604,11 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -3539,22 +3844,23 @@
       <c r="IV9" s="1"/>
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
+      <c r="IY9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:259">
       <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>42032</v>
+      <c r="C10" s="23">
+        <v>43472</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>41674</v>
+      <c r="D10" s="23">
+        <v>43472</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>7</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3567,11 +3873,11 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -3807,22 +4113,23 @@
       <c r="IV10" s="1"/>
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
+      <c r="IY10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:259">
       <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>42040</v>
+      <c r="C11" s="23">
+        <v>43472</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>42044</v>
+      <c r="D11" s="23">
+        <v>43472</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>4</v>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3835,11 +4142,11 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -4075,22 +4382,23 @@
       <c r="IV11" s="1"/>
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
+      <c r="IY11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:259">
       <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>42032</v>
+      <c r="C12" s="24">
+        <v>43472</v>
       </c>
-      <c r="D12" s="6" t="n">
-        <v>42040</v>
+      <c r="D12" s="24">
+        <v>43472</v>
       </c>
-      <c r="E12" s="7" t="n">
-        <v>8</v>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4103,11 +4411,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -4343,22 +4651,23 @@
       <c r="IV12" s="1"/>
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
+      <c r="IY12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:259">
       <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>42039</v>
+      <c r="C13" s="24">
+        <v>43482</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>42041</v>
+      <c r="D13" s="24">
+        <v>43483</v>
       </c>
-      <c r="E13" s="7" t="n">
-        <v>2</v>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4371,11 +4680,11 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -4611,22 +4920,23 @@
       <c r="IV13" s="1"/>
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
+      <c r="IY13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+    <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>42042</v>
+      <c r="C14" s="24">
+        <v>43472</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>42045</v>
+      <c r="D14" s="24">
+        <v>43472</v>
       </c>
-      <c r="E14" s="7" t="n">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4639,11 +4949,11 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -4879,22 +5189,23 @@
       <c r="IV14" s="1"/>
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
+      <c r="IY14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
+    <row r="15" spans="1:259">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>42044</v>
+      <c r="C15" s="24">
+        <v>43472</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>42047</v>
+      <c r="D15" s="24">
+        <v>43483</v>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4907,11 +5218,11 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -5147,22 +5458,23 @@
       <c r="IV15" s="1"/>
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
+      <c r="IY15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
+    <row r="16" spans="1:259">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>42046</v>
+      <c r="C16" s="24">
+        <v>43472</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>42049</v>
+      <c r="D16" s="24">
+        <v>43472</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>3</v>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5175,11 +5487,11 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -5415,22 +5727,23 @@
       <c r="IV16" s="1"/>
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
+      <c r="IY16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
+    <row r="17" spans="1:259">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>42050</v>
+      <c r="C17" s="24">
+        <v>43472</v>
       </c>
-      <c r="D17" s="6" t="n">
-        <v>42052</v>
+      <c r="D17" s="24">
+        <v>43472</v>
       </c>
-      <c r="E17" s="7" t="n">
-        <v>2</v>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5443,11 +5756,11 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -5683,14 +5996,23 @@
       <c r="IV17" s="1"/>
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
+      <c r="IY17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:259">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24">
+        <v>43472</v>
+      </c>
+      <c r="D18" s="24">
+        <v>43472</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5703,11 +6025,11 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -5943,14 +6265,15 @@
       <c r="IV18" s="1"/>
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
+      <c r="IY18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="1:259">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5963,11 +6286,11 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -6203,13 +6526,14 @@
       <c r="IV19" s="1"/>
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
+      <c r="IY19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+    <row r="20" spans="1:259">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6223,11 +6547,11 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -6463,14 +6787,15 @@
       <c r="IV20" s="1"/>
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
+      <c r="IY20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="1:259">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6723,14 +7048,15 @@
       <c r="IV21" s="1"/>
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
+      <c r="IY21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1"/>
+    <row r="22" spans="1:259">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6983,34 +7309,35 @@
       <c r="IV22" s="1"/>
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
+      <c r="IY22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
+    <row r="23" spans="1:259">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -7243,36 +7570,35 @@
       <c r="IV23" s="1"/>
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
+      <c r="IY23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
+    <row r="24" spans="1:259">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -7505,37 +7831,36 @@
       <c r="IV24" s="1"/>
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
+      <c r="IY24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="1"/>
+    <row r="25" spans="1:259" ht="21">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -7767,35 +8092,38 @@
       <c r="IV25" s="1"/>
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
+      <c r="IY25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="1"/>
+    <row r="26" spans="1:259" ht="40.799999999999997">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -8027,35 +8355,38 @@
       <c r="IV26" s="1"/>
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
+      <c r="IY26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="1"/>
+    <row r="27" spans="1:259" ht="18" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -8287,615 +8618,616 @@
       <c r="IV27" s="1"/>
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
+      <c r="IY27" s="1"/>
     </row>
-    <row r="28" s="1" customFormat="true" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
+    <row r="28" spans="1:259" ht="16.2" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
+      <c r="DA28" s="1"/>
+      <c r="DB28" s="1"/>
+      <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
+      <c r="DE28" s="1"/>
+      <c r="DF28" s="1"/>
+      <c r="DG28" s="1"/>
+      <c r="DH28" s="1"/>
+      <c r="DI28" s="1"/>
+      <c r="DJ28" s="1"/>
+      <c r="DK28" s="1"/>
+      <c r="DL28" s="1"/>
+      <c r="DM28" s="1"/>
+      <c r="DN28" s="1"/>
+      <c r="DO28" s="1"/>
+      <c r="DP28" s="1"/>
+      <c r="DQ28" s="1"/>
+      <c r="DR28" s="1"/>
+      <c r="DS28" s="1"/>
+      <c r="DT28" s="1"/>
+      <c r="DU28" s="1"/>
+      <c r="DV28" s="1"/>
+      <c r="DW28" s="1"/>
+      <c r="DX28" s="1"/>
+      <c r="DY28" s="1"/>
+      <c r="DZ28" s="1"/>
+      <c r="EA28" s="1"/>
+      <c r="EB28" s="1"/>
+      <c r="EC28" s="1"/>
+      <c r="ED28" s="1"/>
+      <c r="EE28" s="1"/>
+      <c r="EF28" s="1"/>
+      <c r="EG28" s="1"/>
+      <c r="EH28" s="1"/>
+      <c r="EI28" s="1"/>
+      <c r="EJ28" s="1"/>
+      <c r="EK28" s="1"/>
+      <c r="EL28" s="1"/>
+      <c r="EM28" s="1"/>
+      <c r="EN28" s="1"/>
+      <c r="EO28" s="1"/>
+      <c r="EP28" s="1"/>
+      <c r="EQ28" s="1"/>
+      <c r="ER28" s="1"/>
+      <c r="ES28" s="1"/>
+      <c r="ET28" s="1"/>
+      <c r="EU28" s="1"/>
+      <c r="EV28" s="1"/>
+      <c r="EW28" s="1"/>
+      <c r="EX28" s="1"/>
+      <c r="EY28" s="1"/>
+      <c r="EZ28" s="1"/>
+      <c r="FA28" s="1"/>
+      <c r="FB28" s="1"/>
+      <c r="FC28" s="1"/>
+      <c r="FD28" s="1"/>
+      <c r="FE28" s="1"/>
+      <c r="FF28" s="1"/>
+      <c r="FG28" s="1"/>
+      <c r="FH28" s="1"/>
+      <c r="FI28" s="1"/>
+      <c r="FJ28" s="1"/>
+      <c r="FK28" s="1"/>
+      <c r="FL28" s="1"/>
+      <c r="FM28" s="1"/>
+      <c r="FN28" s="1"/>
+      <c r="FO28" s="1"/>
+      <c r="FP28" s="1"/>
+      <c r="FQ28" s="1"/>
+      <c r="FR28" s="1"/>
+      <c r="FS28" s="1"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" s="1"/>
+      <c r="FW28" s="1"/>
+      <c r="FX28" s="1"/>
+      <c r="FY28" s="1"/>
+      <c r="FZ28" s="1"/>
+      <c r="GA28" s="1"/>
+      <c r="GB28" s="1"/>
+      <c r="GC28" s="1"/>
+      <c r="GD28" s="1"/>
+      <c r="GE28" s="1"/>
+      <c r="GF28" s="1"/>
+      <c r="GG28" s="1"/>
+      <c r="GH28" s="1"/>
+      <c r="GI28" s="1"/>
+      <c r="GJ28" s="1"/>
+      <c r="GK28" s="1"/>
+      <c r="GL28" s="1"/>
+      <c r="GM28" s="1"/>
+      <c r="GN28" s="1"/>
+      <c r="GO28" s="1"/>
+      <c r="GP28" s="1"/>
+      <c r="GQ28" s="1"/>
+      <c r="GR28" s="1"/>
+      <c r="GS28" s="1"/>
+      <c r="GT28" s="1"/>
+      <c r="GU28" s="1"/>
+      <c r="GV28" s="1"/>
+      <c r="GW28" s="1"/>
+      <c r="GX28" s="1"/>
+      <c r="GY28" s="1"/>
+      <c r="GZ28" s="1"/>
+      <c r="HA28" s="1"/>
+      <c r="HB28" s="1"/>
+      <c r="HC28" s="1"/>
+      <c r="HD28" s="1"/>
+      <c r="HE28" s="1"/>
+      <c r="HF28" s="1"/>
+      <c r="HG28" s="1"/>
+      <c r="HH28" s="1"/>
+      <c r="HI28" s="1"/>
+      <c r="HJ28" s="1"/>
+      <c r="HK28" s="1"/>
+      <c r="HL28" s="1"/>
+      <c r="HM28" s="1"/>
+      <c r="HN28" s="1"/>
+      <c r="HO28" s="1"/>
+      <c r="HP28" s="1"/>
+      <c r="HQ28" s="1"/>
+      <c r="HR28" s="1"/>
+      <c r="HS28" s="1"/>
+      <c r="HT28" s="1"/>
+      <c r="HU28" s="1"/>
+      <c r="HV28" s="1"/>
+      <c r="HW28" s="1"/>
+      <c r="HX28" s="1"/>
+      <c r="HY28" s="1"/>
+      <c r="HZ28" s="1"/>
+      <c r="IA28" s="1"/>
+      <c r="IB28" s="1"/>
+      <c r="IC28" s="1"/>
+      <c r="ID28" s="1"/>
+      <c r="IE28" s="1"/>
+      <c r="IF28" s="1"/>
+      <c r="IG28" s="1"/>
+      <c r="IH28" s="1"/>
+      <c r="II28" s="1"/>
+      <c r="IJ28" s="1"/>
+      <c r="IK28" s="1"/>
+      <c r="IL28" s="1"/>
+      <c r="IM28" s="1"/>
+      <c r="IN28" s="1"/>
+      <c r="IO28" s="1"/>
+      <c r="IP28" s="1"/>
+      <c r="IQ28" s="1"/>
+      <c r="IR28" s="1"/>
+      <c r="IS28" s="1"/>
+      <c r="IT28" s="1"/>
+      <c r="IU28" s="1"/>
+      <c r="IV28" s="1"/>
+      <c r="IW28" s="1"/>
+      <c r="IX28" s="1"/>
+      <c r="IY28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
+    <row r="29" spans="1:259" ht="17.399999999999999" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="1"/>
+      <c r="DB29" s="1"/>
+      <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
+      <c r="DE29" s="1"/>
+      <c r="DF29" s="1"/>
+      <c r="DG29" s="1"/>
+      <c r="DH29" s="1"/>
+      <c r="DI29" s="1"/>
+      <c r="DJ29" s="1"/>
+      <c r="DK29" s="1"/>
+      <c r="DL29" s="1"/>
+      <c r="DM29" s="1"/>
+      <c r="DN29" s="1"/>
+      <c r="DO29" s="1"/>
+      <c r="DP29" s="1"/>
+      <c r="DQ29" s="1"/>
+      <c r="DR29" s="1"/>
+      <c r="DS29" s="1"/>
+      <c r="DT29" s="1"/>
+      <c r="DU29" s="1"/>
+      <c r="DV29" s="1"/>
+      <c r="DW29" s="1"/>
+      <c r="DX29" s="1"/>
+      <c r="DY29" s="1"/>
+      <c r="DZ29" s="1"/>
+      <c r="EA29" s="1"/>
+      <c r="EB29" s="1"/>
+      <c r="EC29" s="1"/>
+      <c r="ED29" s="1"/>
+      <c r="EE29" s="1"/>
+      <c r="EF29" s="1"/>
+      <c r="EG29" s="1"/>
+      <c r="EH29" s="1"/>
+      <c r="EI29" s="1"/>
+      <c r="EJ29" s="1"/>
+      <c r="EK29" s="1"/>
+      <c r="EL29" s="1"/>
+      <c r="EM29" s="1"/>
+      <c r="EN29" s="1"/>
+      <c r="EO29" s="1"/>
+      <c r="EP29" s="1"/>
+      <c r="EQ29" s="1"/>
+      <c r="ER29" s="1"/>
+      <c r="ES29" s="1"/>
+      <c r="ET29" s="1"/>
+      <c r="EU29" s="1"/>
+      <c r="EV29" s="1"/>
+      <c r="EW29" s="1"/>
+      <c r="EX29" s="1"/>
+      <c r="EY29" s="1"/>
+      <c r="EZ29" s="1"/>
+      <c r="FA29" s="1"/>
+      <c r="FB29" s="1"/>
+      <c r="FC29" s="1"/>
+      <c r="FD29" s="1"/>
+      <c r="FE29" s="1"/>
+      <c r="FF29" s="1"/>
+      <c r="FG29" s="1"/>
+      <c r="FH29" s="1"/>
+      <c r="FI29" s="1"/>
+      <c r="FJ29" s="1"/>
+      <c r="FK29" s="1"/>
+      <c r="FL29" s="1"/>
+      <c r="FM29" s="1"/>
+      <c r="FN29" s="1"/>
+      <c r="FO29" s="1"/>
+      <c r="FP29" s="1"/>
+      <c r="FQ29" s="1"/>
+      <c r="FR29" s="1"/>
+      <c r="FS29" s="1"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" s="1"/>
+      <c r="FW29" s="1"/>
+      <c r="FX29" s="1"/>
+      <c r="FY29" s="1"/>
+      <c r="FZ29" s="1"/>
+      <c r="GA29" s="1"/>
+      <c r="GB29" s="1"/>
+      <c r="GC29" s="1"/>
+      <c r="GD29" s="1"/>
+      <c r="GE29" s="1"/>
+      <c r="GF29" s="1"/>
+      <c r="GG29" s="1"/>
+      <c r="GH29" s="1"/>
+      <c r="GI29" s="1"/>
+      <c r="GJ29" s="1"/>
+      <c r="GK29" s="1"/>
+      <c r="GL29" s="1"/>
+      <c r="GM29" s="1"/>
+      <c r="GN29" s="1"/>
+      <c r="GO29" s="1"/>
+      <c r="GP29" s="1"/>
+      <c r="GQ29" s="1"/>
+      <c r="GR29" s="1"/>
+      <c r="GS29" s="1"/>
+      <c r="GT29" s="1"/>
+      <c r="GU29" s="1"/>
+      <c r="GV29" s="1"/>
+      <c r="GW29" s="1"/>
+      <c r="GX29" s="1"/>
+      <c r="GY29" s="1"/>
+      <c r="GZ29" s="1"/>
+      <c r="HA29" s="1"/>
+      <c r="HB29" s="1"/>
+      <c r="HC29" s="1"/>
+      <c r="HD29" s="1"/>
+      <c r="HE29" s="1"/>
+      <c r="HF29" s="1"/>
+      <c r="HG29" s="1"/>
+      <c r="HH29" s="1"/>
+      <c r="HI29" s="1"/>
+      <c r="HJ29" s="1"/>
+      <c r="HK29" s="1"/>
+      <c r="HL29" s="1"/>
+      <c r="HM29" s="1"/>
+      <c r="HN29" s="1"/>
+      <c r="HO29" s="1"/>
+      <c r="HP29" s="1"/>
+      <c r="HQ29" s="1"/>
+      <c r="HR29" s="1"/>
+      <c r="HS29" s="1"/>
+      <c r="HT29" s="1"/>
+      <c r="HU29" s="1"/>
+      <c r="HV29" s="1"/>
+      <c r="HW29" s="1"/>
+      <c r="HX29" s="1"/>
+      <c r="HY29" s="1"/>
+      <c r="HZ29" s="1"/>
+      <c r="IA29" s="1"/>
+      <c r="IB29" s="1"/>
+      <c r="IC29" s="1"/>
+      <c r="ID29" s="1"/>
+      <c r="IE29" s="1"/>
+      <c r="IF29" s="1"/>
+      <c r="IG29" s="1"/>
+      <c r="IH29" s="1"/>
+      <c r="II29" s="1"/>
+      <c r="IJ29" s="1"/>
+      <c r="IK29" s="1"/>
+      <c r="IL29" s="1"/>
+      <c r="IM29" s="1"/>
+      <c r="IN29" s="1"/>
+      <c r="IO29" s="1"/>
+      <c r="IP29" s="1"/>
+      <c r="IQ29" s="1"/>
+      <c r="IR29" s="1"/>
+      <c r="IS29" s="1"/>
+      <c r="IT29" s="1"/>
+      <c r="IU29" s="1"/>
+      <c r="IV29" s="1"/>
+      <c r="IW29" s="1"/>
+      <c r="IX29" s="1"/>
+      <c r="IY29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="1"/>
-      <c r="BV30" s="1"/>
-      <c r="BW30" s="1"/>
-      <c r="BX30" s="1"/>
-      <c r="BY30" s="1"/>
-      <c r="BZ30" s="1"/>
-      <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
-      <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
-      <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
-      <c r="CG30" s="1"/>
-      <c r="CH30" s="1"/>
-      <c r="CI30" s="1"/>
-      <c r="CJ30" s="1"/>
-      <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
-      <c r="CT30" s="1"/>
-      <c r="CU30" s="1"/>
-      <c r="CV30" s="1"/>
-      <c r="CW30" s="1"/>
-      <c r="CX30" s="1"/>
-      <c r="CY30" s="1"/>
-      <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
-      <c r="DC30" s="1"/>
-      <c r="DD30" s="1"/>
-      <c r="DE30" s="1"/>
-      <c r="DF30" s="1"/>
-      <c r="DG30" s="1"/>
-      <c r="DH30" s="1"/>
-      <c r="DI30" s="1"/>
-      <c r="DJ30" s="1"/>
-      <c r="DK30" s="1"/>
-      <c r="DL30" s="1"/>
-      <c r="DM30" s="1"/>
-      <c r="DN30" s="1"/>
-      <c r="DO30" s="1"/>
-      <c r="DP30" s="1"/>
-      <c r="DQ30" s="1"/>
-      <c r="DR30" s="1"/>
-      <c r="DS30" s="1"/>
-      <c r="DT30" s="1"/>
-      <c r="DU30" s="1"/>
-      <c r="DV30" s="1"/>
-      <c r="DW30" s="1"/>
-      <c r="DX30" s="1"/>
-      <c r="DY30" s="1"/>
-      <c r="DZ30" s="1"/>
-      <c r="EA30" s="1"/>
-      <c r="EB30" s="1"/>
-      <c r="EC30" s="1"/>
-      <c r="ED30" s="1"/>
-      <c r="EE30" s="1"/>
-      <c r="EF30" s="1"/>
-      <c r="EG30" s="1"/>
-      <c r="EH30" s="1"/>
-      <c r="EI30" s="1"/>
-      <c r="EJ30" s="1"/>
-      <c r="EK30" s="1"/>
-      <c r="EL30" s="1"/>
-      <c r="EM30" s="1"/>
-      <c r="EN30" s="1"/>
-      <c r="EO30" s="1"/>
-      <c r="EP30" s="1"/>
-      <c r="EQ30" s="1"/>
-      <c r="ER30" s="1"/>
-      <c r="ES30" s="1"/>
-      <c r="ET30" s="1"/>
-      <c r="EU30" s="1"/>
-      <c r="EV30" s="1"/>
-      <c r="EW30" s="1"/>
-      <c r="EX30" s="1"/>
-      <c r="EY30" s="1"/>
-      <c r="EZ30" s="1"/>
-      <c r="FA30" s="1"/>
-      <c r="FB30" s="1"/>
-      <c r="FC30" s="1"/>
-      <c r="FD30" s="1"/>
-      <c r="FE30" s="1"/>
-      <c r="FF30" s="1"/>
-      <c r="FG30" s="1"/>
-      <c r="FH30" s="1"/>
-      <c r="FI30" s="1"/>
-      <c r="FJ30" s="1"/>
-      <c r="FK30" s="1"/>
-      <c r="FL30" s="1"/>
-      <c r="FM30" s="1"/>
-      <c r="FN30" s="1"/>
-      <c r="FO30" s="1"/>
-      <c r="FP30" s="1"/>
-      <c r="FQ30" s="1"/>
-      <c r="FR30" s="1"/>
-      <c r="FS30" s="1"/>
-      <c r="FT30" s="1"/>
-      <c r="FU30" s="1"/>
-      <c r="FV30" s="1"/>
-      <c r="FW30" s="1"/>
-      <c r="FX30" s="1"/>
-      <c r="FY30" s="1"/>
-      <c r="FZ30" s="1"/>
-      <c r="GA30" s="1"/>
-      <c r="GB30" s="1"/>
-      <c r="GC30" s="1"/>
-      <c r="GD30" s="1"/>
-      <c r="GE30" s="1"/>
-      <c r="GF30" s="1"/>
-      <c r="GG30" s="1"/>
-      <c r="GH30" s="1"/>
-      <c r="GI30" s="1"/>
-      <c r="GJ30" s="1"/>
-      <c r="GK30" s="1"/>
-      <c r="GL30" s="1"/>
-      <c r="GM30" s="1"/>
-      <c r="GN30" s="1"/>
-      <c r="GO30" s="1"/>
-      <c r="GP30" s="1"/>
-      <c r="GQ30" s="1"/>
-      <c r="GR30" s="1"/>
-      <c r="GS30" s="1"/>
-      <c r="GT30" s="1"/>
-      <c r="GU30" s="1"/>
-      <c r="GV30" s="1"/>
-      <c r="GW30" s="1"/>
-      <c r="GX30" s="1"/>
-      <c r="GY30" s="1"/>
-      <c r="GZ30" s="1"/>
-      <c r="HA30" s="1"/>
-      <c r="HB30" s="1"/>
-      <c r="HC30" s="1"/>
-      <c r="HD30" s="1"/>
-      <c r="HE30" s="1"/>
-      <c r="HF30" s="1"/>
-      <c r="HG30" s="1"/>
-      <c r="HH30" s="1"/>
-      <c r="HI30" s="1"/>
-      <c r="HJ30" s="1"/>
-      <c r="HK30" s="1"/>
-      <c r="HL30" s="1"/>
-      <c r="HM30" s="1"/>
-      <c r="HN30" s="1"/>
-      <c r="HO30" s="1"/>
-      <c r="HP30" s="1"/>
-      <c r="HQ30" s="1"/>
-      <c r="HR30" s="1"/>
-      <c r="HS30" s="1"/>
-      <c r="HT30" s="1"/>
-      <c r="HU30" s="1"/>
-      <c r="HV30" s="1"/>
-      <c r="HW30" s="1"/>
-      <c r="HX30" s="1"/>
-      <c r="HY30" s="1"/>
-      <c r="HZ30" s="1"/>
-      <c r="IA30" s="1"/>
-      <c r="IB30" s="1"/>
-      <c r="IC30" s="1"/>
-      <c r="ID30" s="1"/>
-      <c r="IE30" s="1"/>
-      <c r="IF30" s="1"/>
-      <c r="IG30" s="1"/>
-      <c r="IH30" s="1"/>
-      <c r="II30" s="1"/>
-      <c r="IJ30" s="1"/>
-      <c r="IK30" s="1"/>
-      <c r="IL30" s="1"/>
-      <c r="IM30" s="1"/>
-      <c r="IN30" s="1"/>
-      <c r="IO30" s="1"/>
-      <c r="IP30" s="1"/>
-      <c r="IQ30" s="1"/>
-      <c r="IR30" s="1"/>
-      <c r="IS30" s="1"/>
-      <c r="IT30" s="1"/>
-      <c r="IU30" s="1"/>
-      <c r="IV30" s="1"/>
-      <c r="IW30" s="1"/>
-      <c r="IX30" s="1"/>
+    <row r="30" spans="1:259" s="1" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="1"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="1"/>
-      <c r="BV31" s="1"/>
-      <c r="BW31" s="1"/>
-      <c r="BX31" s="1"/>
-      <c r="BY31" s="1"/>
-      <c r="BZ31" s="1"/>
-      <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
-      <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
-      <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
-      <c r="CI31" s="1"/>
-      <c r="CJ31" s="1"/>
-      <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
-      <c r="CT31" s="1"/>
-      <c r="CU31" s="1"/>
-      <c r="CV31" s="1"/>
-      <c r="CW31" s="1"/>
-      <c r="CX31" s="1"/>
-      <c r="CY31" s="1"/>
-      <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
-      <c r="DB31" s="1"/>
-      <c r="DC31" s="1"/>
-      <c r="DD31" s="1"/>
-      <c r="DE31" s="1"/>
-      <c r="DF31" s="1"/>
-      <c r="DG31" s="1"/>
-      <c r="DH31" s="1"/>
-      <c r="DI31" s="1"/>
-      <c r="DJ31" s="1"/>
-      <c r="DK31" s="1"/>
-      <c r="DL31" s="1"/>
-      <c r="DM31" s="1"/>
-      <c r="DN31" s="1"/>
-      <c r="DO31" s="1"/>
-      <c r="DP31" s="1"/>
-      <c r="DQ31" s="1"/>
-      <c r="DR31" s="1"/>
-      <c r="DS31" s="1"/>
-      <c r="DT31" s="1"/>
-      <c r="DU31" s="1"/>
-      <c r="DV31" s="1"/>
-      <c r="DW31" s="1"/>
-      <c r="DX31" s="1"/>
-      <c r="DY31" s="1"/>
-      <c r="DZ31" s="1"/>
-      <c r="EA31" s="1"/>
-      <c r="EB31" s="1"/>
-      <c r="EC31" s="1"/>
-      <c r="ED31" s="1"/>
-      <c r="EE31" s="1"/>
-      <c r="EF31" s="1"/>
-      <c r="EG31" s="1"/>
-      <c r="EH31" s="1"/>
-      <c r="EI31" s="1"/>
-      <c r="EJ31" s="1"/>
-      <c r="EK31" s="1"/>
-      <c r="EL31" s="1"/>
-      <c r="EM31" s="1"/>
-      <c r="EN31" s="1"/>
-      <c r="EO31" s="1"/>
-      <c r="EP31" s="1"/>
-      <c r="EQ31" s="1"/>
-      <c r="ER31" s="1"/>
-      <c r="ES31" s="1"/>
-      <c r="ET31" s="1"/>
-      <c r="EU31" s="1"/>
-      <c r="EV31" s="1"/>
-      <c r="EW31" s="1"/>
-      <c r="EX31" s="1"/>
-      <c r="EY31" s="1"/>
-      <c r="EZ31" s="1"/>
-      <c r="FA31" s="1"/>
-      <c r="FB31" s="1"/>
-      <c r="FC31" s="1"/>
-      <c r="FD31" s="1"/>
-      <c r="FE31" s="1"/>
-      <c r="FF31" s="1"/>
-      <c r="FG31" s="1"/>
-      <c r="FH31" s="1"/>
-      <c r="FI31" s="1"/>
-      <c r="FJ31" s="1"/>
-      <c r="FK31" s="1"/>
-      <c r="FL31" s="1"/>
-      <c r="FM31" s="1"/>
-      <c r="FN31" s="1"/>
-      <c r="FO31" s="1"/>
-      <c r="FP31" s="1"/>
-      <c r="FQ31" s="1"/>
-      <c r="FR31" s="1"/>
-      <c r="FS31" s="1"/>
-      <c r="FT31" s="1"/>
-      <c r="FU31" s="1"/>
-      <c r="FV31" s="1"/>
-      <c r="FW31" s="1"/>
-      <c r="FX31" s="1"/>
-      <c r="FY31" s="1"/>
-      <c r="FZ31" s="1"/>
-      <c r="GA31" s="1"/>
-      <c r="GB31" s="1"/>
-      <c r="GC31" s="1"/>
-      <c r="GD31" s="1"/>
-      <c r="GE31" s="1"/>
-      <c r="GF31" s="1"/>
-      <c r="GG31" s="1"/>
-      <c r="GH31" s="1"/>
-      <c r="GI31" s="1"/>
-      <c r="GJ31" s="1"/>
-      <c r="GK31" s="1"/>
-      <c r="GL31" s="1"/>
-      <c r="GM31" s="1"/>
-      <c r="GN31" s="1"/>
-      <c r="GO31" s="1"/>
-      <c r="GP31" s="1"/>
-      <c r="GQ31" s="1"/>
-      <c r="GR31" s="1"/>
-      <c r="GS31" s="1"/>
-      <c r="GT31" s="1"/>
-      <c r="GU31" s="1"/>
-      <c r="GV31" s="1"/>
-      <c r="GW31" s="1"/>
-      <c r="GX31" s="1"/>
-      <c r="GY31" s="1"/>
-      <c r="GZ31" s="1"/>
-      <c r="HA31" s="1"/>
-      <c r="HB31" s="1"/>
-      <c r="HC31" s="1"/>
-      <c r="HD31" s="1"/>
-      <c r="HE31" s="1"/>
-      <c r="HF31" s="1"/>
-      <c r="HG31" s="1"/>
-      <c r="HH31" s="1"/>
-      <c r="HI31" s="1"/>
-      <c r="HJ31" s="1"/>
-      <c r="HK31" s="1"/>
-      <c r="HL31" s="1"/>
-      <c r="HM31" s="1"/>
-      <c r="HN31" s="1"/>
-      <c r="HO31" s="1"/>
-      <c r="HP31" s="1"/>
-      <c r="HQ31" s="1"/>
-      <c r="HR31" s="1"/>
-      <c r="HS31" s="1"/>
-      <c r="HT31" s="1"/>
-      <c r="HU31" s="1"/>
-      <c r="HV31" s="1"/>
-      <c r="HW31" s="1"/>
-      <c r="HX31" s="1"/>
-      <c r="HY31" s="1"/>
-      <c r="HZ31" s="1"/>
-      <c r="IA31" s="1"/>
-      <c r="IB31" s="1"/>
-      <c r="IC31" s="1"/>
-      <c r="ID31" s="1"/>
-      <c r="IE31" s="1"/>
-      <c r="IF31" s="1"/>
-      <c r="IG31" s="1"/>
-      <c r="IH31" s="1"/>
-      <c r="II31" s="1"/>
-      <c r="IJ31" s="1"/>
-      <c r="IK31" s="1"/>
-      <c r="IL31" s="1"/>
-      <c r="IM31" s="1"/>
-      <c r="IN31" s="1"/>
-      <c r="IO31" s="1"/>
-      <c r="IP31" s="1"/>
-      <c r="IQ31" s="1"/>
-      <c r="IR31" s="1"/>
-      <c r="IS31" s="1"/>
-      <c r="IT31" s="1"/>
-      <c r="IU31" s="1"/>
-      <c r="IV31" s="1"/>
-      <c r="IW31" s="1"/>
-      <c r="IX31" s="1"/>
+    <row r="31" spans="1:259" ht="19.2" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="1"/>
+    <row r="32" spans="1:259" ht="21">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -9127,35 +9459,40 @@
       <c r="IV32" s="1"/>
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
+      <c r="IY32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="1"/>
+    <row r="33" spans="1:259" ht="15.6" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -9387,35 +9724,36 @@
       <c r="IV33" s="1"/>
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
+      <c r="IY33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="1"/>
+    <row r="34" spans="1:259">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -9647,35 +9985,36 @@
       <c r="IV34" s="1"/>
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
+      <c r="IY34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="1"/>
+    <row r="35" spans="1:259">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="16"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -9907,35 +10246,36 @@
       <c r="IV35" s="1"/>
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
+      <c r="IY35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="1"/>
+    <row r="36" spans="1:259">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="16"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -10167,35 +10507,36 @@
       <c r="IV36" s="1"/>
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
+      <c r="IY36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="1"/>
+    <row r="37" spans="1:259">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="16"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
@@ -10427,37 +10768,36 @@
       <c r="IV37" s="1"/>
       <c r="IW37" s="1"/>
       <c r="IX37" s="1"/>
+      <c r="IY37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="1"/>
+    <row r="38" spans="1:259">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="16"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -10689,35 +11029,36 @@
       <c r="IV38" s="1"/>
       <c r="IW38" s="1"/>
       <c r="IX38" s="1"/>
+      <c r="IY38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="1"/>
+    <row r="39" spans="1:259">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -10949,37 +11290,38 @@
       <c r="IV39" s="1"/>
       <c r="IW39" s="1"/>
       <c r="IX39" s="1"/>
+      <c r="IY39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="24" t="s">
-        <v>21</v>
+    <row r="40" spans="1:259">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="17" t="s">
+        <v>8</v>
       </c>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="1"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="16"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -11211,37 +11553,36 @@
       <c r="IV40" s="1"/>
       <c r="IW40" s="1"/>
       <c r="IX40" s="1"/>
+      <c r="IY40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="1"/>
+    <row r="41" spans="1:259">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="16"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
@@ -11473,35 +11814,38 @@
       <c r="IV41" s="1"/>
       <c r="IW41" s="1"/>
       <c r="IX41" s="1"/>
+      <c r="IY41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="1"/>
+    <row r="42" spans="1:259" ht="28.8">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -11733,35 +12077,38 @@
       <c r="IV42" s="1"/>
       <c r="IW42" s="1"/>
       <c r="IX42" s="1"/>
+      <c r="IY42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="1"/>
+    <row r="43" spans="1:259" ht="28.8">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="16"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
@@ -11993,35 +12340,36 @@
       <c r="IV43" s="1"/>
       <c r="IW43" s="1"/>
       <c r="IX43" s="1"/>
+      <c r="IY43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="1"/>
+    <row r="44" spans="1:259">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
@@ -12253,35 +12601,36 @@
       <c r="IV44" s="1"/>
       <c r="IW44" s="1"/>
       <c r="IX44" s="1"/>
+      <c r="IY44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="1"/>
+    <row r="45" spans="1:259">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
@@ -12513,35 +12862,36 @@
       <c r="IV45" s="1"/>
       <c r="IW45" s="1"/>
       <c r="IX45" s="1"/>
+      <c r="IY45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="1"/>
+    <row r="46" spans="1:259">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
@@ -12773,35 +13123,36 @@
       <c r="IV46" s="1"/>
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
+      <c r="IY46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="1"/>
+    <row r="47" spans="1:259">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
@@ -13033,35 +13384,36 @@
       <c r="IV47" s="1"/>
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
+      <c r="IY47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="1"/>
+    <row r="48" spans="1:259">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
@@ -13293,35 +13645,36 @@
       <c r="IV48" s="1"/>
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
+      <c r="IY48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="1"/>
+    <row r="49" spans="1:259">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
@@ -13553,35 +13906,36 @@
       <c r="IV49" s="1"/>
       <c r="IW49" s="1"/>
       <c r="IX49" s="1"/>
+      <c r="IY49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="1"/>
+    <row r="50" spans="1:259">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -13813,35 +14167,36 @@
       <c r="IV50" s="1"/>
       <c r="IW50" s="1"/>
       <c r="IX50" s="1"/>
+      <c r="IY50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="1"/>
+    <row r="51" spans="1:259">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
@@ -14073,35 +14428,36 @@
       <c r="IV51" s="1"/>
       <c r="IW51" s="1"/>
       <c r="IX51" s="1"/>
+      <c r="IY51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="1"/>
+    <row r="52" spans="1:259">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -14333,35 +14689,36 @@
       <c r="IV52" s="1"/>
       <c r="IW52" s="1"/>
       <c r="IX52" s="1"/>
+      <c r="IY52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="1"/>
+    <row r="53" spans="1:259">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
@@ -14593,35 +14950,36 @@
       <c r="IV53" s="1"/>
       <c r="IW53" s="1"/>
       <c r="IX53" s="1"/>
+      <c r="IY53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="1"/>
+    <row r="54" spans="1:259">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -14853,35 +15211,36 @@
       <c r="IV54" s="1"/>
       <c r="IW54" s="1"/>
       <c r="IX54" s="1"/>
+      <c r="IY54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="1"/>
+    <row r="55" spans="1:259">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
@@ -15113,35 +15472,36 @@
       <c r="IV55" s="1"/>
       <c r="IW55" s="1"/>
       <c r="IX55" s="1"/>
+      <c r="IY55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="1"/>
+    <row r="56" spans="1:259">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
@@ -15373,35 +15733,36 @@
       <c r="IV56" s="1"/>
       <c r="IW56" s="1"/>
       <c r="IX56" s="1"/>
+      <c r="IY56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="1"/>
+    <row r="57" spans="1:259">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
@@ -15633,35 +15994,36 @@
       <c r="IV57" s="1"/>
       <c r="IW57" s="1"/>
       <c r="IX57" s="1"/>
+      <c r="IY57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="1"/>
+    <row r="58" spans="1:259">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
@@ -15893,35 +16255,36 @@
       <c r="IV58" s="1"/>
       <c r="IW58" s="1"/>
       <c r="IX58" s="1"/>
+      <c r="IY58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="1"/>
+    <row r="59" spans="1:259">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
@@ -16153,35 +16516,36 @@
       <c r="IV59" s="1"/>
       <c r="IW59" s="1"/>
       <c r="IX59" s="1"/>
+      <c r="IY59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="1"/>
+    <row r="60" spans="1:259">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
@@ -16413,35 +16777,36 @@
       <c r="IV60" s="1"/>
       <c r="IW60" s="1"/>
       <c r="IX60" s="1"/>
+      <c r="IY60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="1"/>
+    <row r="61" spans="1:259">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
@@ -16673,35 +17038,36 @@
       <c r="IV61" s="1"/>
       <c r="IW61" s="1"/>
       <c r="IX61" s="1"/>
+      <c r="IY61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="1"/>
+    <row r="62" spans="1:259">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
@@ -16933,35 +17299,36 @@
       <c r="IV62" s="1"/>
       <c r="IW62" s="1"/>
       <c r="IX62" s="1"/>
+      <c r="IY62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="1"/>
+    <row r="63" spans="1:259">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
@@ -17193,35 +17560,36 @@
       <c r="IV63" s="1"/>
       <c r="IW63" s="1"/>
       <c r="IX63" s="1"/>
+      <c r="IY63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="1"/>
+    <row r="64" spans="1:259">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
@@ -17453,35 +17821,36 @@
       <c r="IV64" s="1"/>
       <c r="IW64" s="1"/>
       <c r="IX64" s="1"/>
+      <c r="IY64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="1"/>
+    <row r="65" spans="1:259">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -17713,35 +18082,36 @@
       <c r="IV65" s="1"/>
       <c r="IW65" s="1"/>
       <c r="IX65" s="1"/>
+      <c r="IY65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="1"/>
+    <row r="66" spans="1:259">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
@@ -17973,35 +18343,36 @@
       <c r="IV66" s="1"/>
       <c r="IW66" s="1"/>
       <c r="IX66" s="1"/>
+      <c r="IY66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="1"/>
+    <row r="67" spans="1:259">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -18233,35 +18604,36 @@
       <c r="IV67" s="1"/>
       <c r="IW67" s="1"/>
       <c r="IX67" s="1"/>
+      <c r="IY67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="1"/>
+    <row r="68" spans="1:259">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
@@ -18493,83 +18865,606 @@
       <c r="IV68" s="1"/>
       <c r="IW68" s="1"/>
       <c r="IX68" s="1"/>
+      <c r="IY68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
+    <row r="69" spans="1:259">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="1"/>
+      <c r="CZ69" s="1"/>
+      <c r="DA69" s="1"/>
+      <c r="DB69" s="1"/>
+      <c r="DC69" s="1"/>
+      <c r="DD69" s="1"/>
+      <c r="DE69" s="1"/>
+      <c r="DF69" s="1"/>
+      <c r="DG69" s="1"/>
+      <c r="DH69" s="1"/>
+      <c r="DI69" s="1"/>
+      <c r="DJ69" s="1"/>
+      <c r="DK69" s="1"/>
+      <c r="DL69" s="1"/>
+      <c r="DM69" s="1"/>
+      <c r="DN69" s="1"/>
+      <c r="DO69" s="1"/>
+      <c r="DP69" s="1"/>
+      <c r="DQ69" s="1"/>
+      <c r="DR69" s="1"/>
+      <c r="DS69" s="1"/>
+      <c r="DT69" s="1"/>
+      <c r="DU69" s="1"/>
+      <c r="DV69" s="1"/>
+      <c r="DW69" s="1"/>
+      <c r="DX69" s="1"/>
+      <c r="DY69" s="1"/>
+      <c r="DZ69" s="1"/>
+      <c r="EA69" s="1"/>
+      <c r="EB69" s="1"/>
+      <c r="EC69" s="1"/>
+      <c r="ED69" s="1"/>
+      <c r="EE69" s="1"/>
+      <c r="EF69" s="1"/>
+      <c r="EG69" s="1"/>
+      <c r="EH69" s="1"/>
+      <c r="EI69" s="1"/>
+      <c r="EJ69" s="1"/>
+      <c r="EK69" s="1"/>
+      <c r="EL69" s="1"/>
+      <c r="EM69" s="1"/>
+      <c r="EN69" s="1"/>
+      <c r="EO69" s="1"/>
+      <c r="EP69" s="1"/>
+      <c r="EQ69" s="1"/>
+      <c r="ER69" s="1"/>
+      <c r="ES69" s="1"/>
+      <c r="ET69" s="1"/>
+      <c r="EU69" s="1"/>
+      <c r="EV69" s="1"/>
+      <c r="EW69" s="1"/>
+      <c r="EX69" s="1"/>
+      <c r="EY69" s="1"/>
+      <c r="EZ69" s="1"/>
+      <c r="FA69" s="1"/>
+      <c r="FB69" s="1"/>
+      <c r="FC69" s="1"/>
+      <c r="FD69" s="1"/>
+      <c r="FE69" s="1"/>
+      <c r="FF69" s="1"/>
+      <c r="FG69" s="1"/>
+      <c r="FH69" s="1"/>
+      <c r="FI69" s="1"/>
+      <c r="FJ69" s="1"/>
+      <c r="FK69" s="1"/>
+      <c r="FL69" s="1"/>
+      <c r="FM69" s="1"/>
+      <c r="FN69" s="1"/>
+      <c r="FO69" s="1"/>
+      <c r="FP69" s="1"/>
+      <c r="FQ69" s="1"/>
+      <c r="FR69" s="1"/>
+      <c r="FS69" s="1"/>
+      <c r="FT69" s="1"/>
+      <c r="FU69" s="1"/>
+      <c r="FV69" s="1"/>
+      <c r="FW69" s="1"/>
+      <c r="FX69" s="1"/>
+      <c r="FY69" s="1"/>
+      <c r="FZ69" s="1"/>
+      <c r="GA69" s="1"/>
+      <c r="GB69" s="1"/>
+      <c r="GC69" s="1"/>
+      <c r="GD69" s="1"/>
+      <c r="GE69" s="1"/>
+      <c r="GF69" s="1"/>
+      <c r="GG69" s="1"/>
+      <c r="GH69" s="1"/>
+      <c r="GI69" s="1"/>
+      <c r="GJ69" s="1"/>
+      <c r="GK69" s="1"/>
+      <c r="GL69" s="1"/>
+      <c r="GM69" s="1"/>
+      <c r="GN69" s="1"/>
+      <c r="GO69" s="1"/>
+      <c r="GP69" s="1"/>
+      <c r="GQ69" s="1"/>
+      <c r="GR69" s="1"/>
+      <c r="GS69" s="1"/>
+      <c r="GT69" s="1"/>
+      <c r="GU69" s="1"/>
+      <c r="GV69" s="1"/>
+      <c r="GW69" s="1"/>
+      <c r="GX69" s="1"/>
+      <c r="GY69" s="1"/>
+      <c r="GZ69" s="1"/>
+      <c r="HA69" s="1"/>
+      <c r="HB69" s="1"/>
+      <c r="HC69" s="1"/>
+      <c r="HD69" s="1"/>
+      <c r="HE69" s="1"/>
+      <c r="HF69" s="1"/>
+      <c r="HG69" s="1"/>
+      <c r="HH69" s="1"/>
+      <c r="HI69" s="1"/>
+      <c r="HJ69" s="1"/>
+      <c r="HK69" s="1"/>
+      <c r="HL69" s="1"/>
+      <c r="HM69" s="1"/>
+      <c r="HN69" s="1"/>
+      <c r="HO69" s="1"/>
+      <c r="HP69" s="1"/>
+      <c r="HQ69" s="1"/>
+      <c r="HR69" s="1"/>
+      <c r="HS69" s="1"/>
+      <c r="HT69" s="1"/>
+      <c r="HU69" s="1"/>
+      <c r="HV69" s="1"/>
+      <c r="HW69" s="1"/>
+      <c r="HX69" s="1"/>
+      <c r="HY69" s="1"/>
+      <c r="HZ69" s="1"/>
+      <c r="IA69" s="1"/>
+      <c r="IB69" s="1"/>
+      <c r="IC69" s="1"/>
+      <c r="ID69" s="1"/>
+      <c r="IE69" s="1"/>
+      <c r="IF69" s="1"/>
+      <c r="IG69" s="1"/>
+      <c r="IH69" s="1"/>
+      <c r="II69" s="1"/>
+      <c r="IJ69" s="1"/>
+      <c r="IK69" s="1"/>
+      <c r="IL69" s="1"/>
+      <c r="IM69" s="1"/>
+      <c r="IN69" s="1"/>
+      <c r="IO69" s="1"/>
+      <c r="IP69" s="1"/>
+      <c r="IQ69" s="1"/>
+      <c r="IR69" s="1"/>
+      <c r="IS69" s="1"/>
+      <c r="IT69" s="1"/>
+      <c r="IU69" s="1"/>
+      <c r="IV69" s="1"/>
+      <c r="IW69" s="1"/>
+      <c r="IX69" s="1"/>
+      <c r="IY69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
+    <row r="70" spans="1:259">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="1"/>
+      <c r="CZ70" s="1"/>
+      <c r="DA70" s="1"/>
+      <c r="DB70" s="1"/>
+      <c r="DC70" s="1"/>
+      <c r="DD70" s="1"/>
+      <c r="DE70" s="1"/>
+      <c r="DF70" s="1"/>
+      <c r="DG70" s="1"/>
+      <c r="DH70" s="1"/>
+      <c r="DI70" s="1"/>
+      <c r="DJ70" s="1"/>
+      <c r="DK70" s="1"/>
+      <c r="DL70" s="1"/>
+      <c r="DM70" s="1"/>
+      <c r="DN70" s="1"/>
+      <c r="DO70" s="1"/>
+      <c r="DP70" s="1"/>
+      <c r="DQ70" s="1"/>
+      <c r="DR70" s="1"/>
+      <c r="DS70" s="1"/>
+      <c r="DT70" s="1"/>
+      <c r="DU70" s="1"/>
+      <c r="DV70" s="1"/>
+      <c r="DW70" s="1"/>
+      <c r="DX70" s="1"/>
+      <c r="DY70" s="1"/>
+      <c r="DZ70" s="1"/>
+      <c r="EA70" s="1"/>
+      <c r="EB70" s="1"/>
+      <c r="EC70" s="1"/>
+      <c r="ED70" s="1"/>
+      <c r="EE70" s="1"/>
+      <c r="EF70" s="1"/>
+      <c r="EG70" s="1"/>
+      <c r="EH70" s="1"/>
+      <c r="EI70" s="1"/>
+      <c r="EJ70" s="1"/>
+      <c r="EK70" s="1"/>
+      <c r="EL70" s="1"/>
+      <c r="EM70" s="1"/>
+      <c r="EN70" s="1"/>
+      <c r="EO70" s="1"/>
+      <c r="EP70" s="1"/>
+      <c r="EQ70" s="1"/>
+      <c r="ER70" s="1"/>
+      <c r="ES70" s="1"/>
+      <c r="ET70" s="1"/>
+      <c r="EU70" s="1"/>
+      <c r="EV70" s="1"/>
+      <c r="EW70" s="1"/>
+      <c r="EX70" s="1"/>
+      <c r="EY70" s="1"/>
+      <c r="EZ70" s="1"/>
+      <c r="FA70" s="1"/>
+      <c r="FB70" s="1"/>
+      <c r="FC70" s="1"/>
+      <c r="FD70" s="1"/>
+      <c r="FE70" s="1"/>
+      <c r="FF70" s="1"/>
+      <c r="FG70" s="1"/>
+      <c r="FH70" s="1"/>
+      <c r="FI70" s="1"/>
+      <c r="FJ70" s="1"/>
+      <c r="FK70" s="1"/>
+      <c r="FL70" s="1"/>
+      <c r="FM70" s="1"/>
+      <c r="FN70" s="1"/>
+      <c r="FO70" s="1"/>
+      <c r="FP70" s="1"/>
+      <c r="FQ70" s="1"/>
+      <c r="FR70" s="1"/>
+      <c r="FS70" s="1"/>
+      <c r="FT70" s="1"/>
+      <c r="FU70" s="1"/>
+      <c r="FV70" s="1"/>
+      <c r="FW70" s="1"/>
+      <c r="FX70" s="1"/>
+      <c r="FY70" s="1"/>
+      <c r="FZ70" s="1"/>
+      <c r="GA70" s="1"/>
+      <c r="GB70" s="1"/>
+      <c r="GC70" s="1"/>
+      <c r="GD70" s="1"/>
+      <c r="GE70" s="1"/>
+      <c r="GF70" s="1"/>
+      <c r="GG70" s="1"/>
+      <c r="GH70" s="1"/>
+      <c r="GI70" s="1"/>
+      <c r="GJ70" s="1"/>
+      <c r="GK70" s="1"/>
+      <c r="GL70" s="1"/>
+      <c r="GM70" s="1"/>
+      <c r="GN70" s="1"/>
+      <c r="GO70" s="1"/>
+      <c r="GP70" s="1"/>
+      <c r="GQ70" s="1"/>
+      <c r="GR70" s="1"/>
+      <c r="GS70" s="1"/>
+      <c r="GT70" s="1"/>
+      <c r="GU70" s="1"/>
+      <c r="GV70" s="1"/>
+      <c r="GW70" s="1"/>
+      <c r="GX70" s="1"/>
+      <c r="GY70" s="1"/>
+      <c r="GZ70" s="1"/>
+      <c r="HA70" s="1"/>
+      <c r="HB70" s="1"/>
+      <c r="HC70" s="1"/>
+      <c r="HD70" s="1"/>
+      <c r="HE70" s="1"/>
+      <c r="HF70" s="1"/>
+      <c r="HG70" s="1"/>
+      <c r="HH70" s="1"/>
+      <c r="HI70" s="1"/>
+      <c r="HJ70" s="1"/>
+      <c r="HK70" s="1"/>
+      <c r="HL70" s="1"/>
+      <c r="HM70" s="1"/>
+      <c r="HN70" s="1"/>
+      <c r="HO70" s="1"/>
+      <c r="HP70" s="1"/>
+      <c r="HQ70" s="1"/>
+      <c r="HR70" s="1"/>
+      <c r="HS70" s="1"/>
+      <c r="HT70" s="1"/>
+      <c r="HU70" s="1"/>
+      <c r="HV70" s="1"/>
+      <c r="HW70" s="1"/>
+      <c r="HX70" s="1"/>
+      <c r="HY70" s="1"/>
+      <c r="HZ70" s="1"/>
+      <c r="IA70" s="1"/>
+      <c r="IB70" s="1"/>
+      <c r="IC70" s="1"/>
+      <c r="ID70" s="1"/>
+      <c r="IE70" s="1"/>
+      <c r="IF70" s="1"/>
+      <c r="IG70" s="1"/>
+      <c r="IH70" s="1"/>
+      <c r="II70" s="1"/>
+      <c r="IJ70" s="1"/>
+      <c r="IK70" s="1"/>
+      <c r="IL70" s="1"/>
+      <c r="IM70" s="1"/>
+      <c r="IN70" s="1"/>
+      <c r="IO70" s="1"/>
+      <c r="IP70" s="1"/>
+      <c r="IQ70" s="1"/>
+      <c r="IR70" s="1"/>
+      <c r="IS70" s="1"/>
+      <c r="IT70" s="1"/>
+      <c r="IU70" s="1"/>
+      <c r="IV70" s="1"/>
+      <c r="IW70" s="1"/>
+      <c r="IX70" s="1"/>
+      <c r="IY70" s="1"/>
+    </row>
+    <row r="71" spans="1:259">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+    </row>
+    <row r="72" spans="1:259">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E24:R24"/>
-    <mergeCell ref="F25:R27"/>
-    <mergeCell ref="U31:Y36"/>
-    <mergeCell ref="U38:Y39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="E26:S26"/>
+    <mergeCell ref="G27:S29"/>
+    <mergeCell ref="V33:Z38"/>
+    <mergeCell ref="V40:Z41"/>
+    <mergeCell ref="V42:Y42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" display="Ou, Cliquez ici pour créer votre chronologie dans Smartsheet"/>
-    <hyperlink ref="F25" r:id="rId2" display="Créez un diagramme de Gantt dans Smartsheet"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
     <oddHeader>&amp;CGantt Chart_x000D_</oddHeader>
-    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77AADA5-96B6-406E-88C4-F84B740C0862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92672466-C2D3-4700-B8F1-B48C4CDA29C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -576,12 +576,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,9 +623,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -624,13 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,98 +641,161 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,23 +806,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1773,7 +1832,7 @@
                   <c:v>43473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43473.5</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43473</c:v>
@@ -1782,13 +1841,13 @@
                   <c:v>43473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43479</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43480</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43481</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43479</c:v>
@@ -1803,7 +1862,7 @@
                   <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43479</c:v>
+                  <c:v>43474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,7 +2199,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2149,13 +2208,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -2170,7 +2229,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2856,7 @@
   <dimension ref="A1:IY75"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -3593,22 +3652,22 @@
       <c r="IY3" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -3866,12 +3925,12 @@
       <c r="IY4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4127,25 +4186,25 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="60">
         <v>43471.5</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="60">
         <v>43472</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="53">
         <v>0.5</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="55">
         <v>6</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -4400,25 +4459,25 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="31.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="32">
         <v>43472</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="32">
         <v>43473.5</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <v>1.5</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="33">
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -4673,23 +4732,23 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <v>43473.5</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="35">
         <v>43474.625</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="34">
         <v>1.25</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="36">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4944,25 +5003,25 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="32">
         <v>43473.5</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="32">
         <v>43477</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <v>3.5</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="33">
         <v>14</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5217,23 +5276,23 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="35">
         <v>43479</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="35">
         <v>43481</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="36">
         <v>16</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5488,25 +5547,25 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="32">
         <v>43473.5</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="32">
         <v>43476</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <v>2.5</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="33">
         <v>10</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -5761,23 +5820,23 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="60"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="43">
         <v>43476</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="43">
         <v>43477</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="42">
         <v>1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="44">
         <v>5</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6032,23 +6091,23 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="45">
         <v>43476</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="45">
         <v>43477</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="36">
         <v>5</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -6303,25 +6362,25 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="61">
         <v>43479</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="61">
         <v>43480</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="33">
         <v>6</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -6576,23 +6635,23 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="43">
         <v>43480</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="43">
         <v>43481</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="44">
         <v>6</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -6847,23 +6906,23 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="45">
         <v>43481</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="45">
         <v>43482</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="34">
         <v>1</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="36">
         <v>6</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -7118,25 +7177,25 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="61">
         <v>43479</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="61">
         <v>43483</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="31">
         <v>5</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="33">
         <v>6</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -7391,23 +7450,23 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="45">
         <v>43479</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="45">
         <v>43483</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="34">
         <v>5</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="36">
         <v>6</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -7662,25 +7721,25 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="54">
         <v>43472</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="54">
         <v>43483</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="53">
         <v>12</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="55">
         <v>3</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -7935,25 +7994,25 @@
       <c r="IY19" s="1"/>
     </row>
     <row r="20" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="54">
         <v>43472</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="54">
         <v>43483</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="53">
         <v>12</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="55">
         <v>4.5</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -8208,25 +8267,25 @@
       <c r="IY20" s="1"/>
     </row>
     <row r="21" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="54">
         <v>43472</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="54">
         <v>43483</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="53">
         <v>12</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="55">
         <v>20</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -8481,13 +8540,13 @@
       <c r="IY21" s="1"/>
     </row>
     <row r="22" spans="1:259">
-      <c r="A22" s="39"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -10312,23 +10371,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -10577,21 +10636,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -10840,19 +10899,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -11101,19 +11160,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -11698,13 +11757,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="63" t="s">
+      <c r="V36" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -11961,11 +12020,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -12222,11 +12281,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -12483,11 +12542,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -12744,11 +12803,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13005,11 +13064,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -13527,13 +13586,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="64" t="s">
+      <c r="V43" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -13790,11 +13849,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -14051,12 +14110,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="64" t="s">
+      <c r="V45" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -14314,13 +14373,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="64" t="s">
+      <c r="V46" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -21662,17 +21721,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="G30:S32"/>
     <mergeCell ref="V36:Z41"/>
     <mergeCell ref="V43:Z44"/>
     <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C3673B30-6B6A-4991-B4FA-78872317CBE2}"/>
@@ -22224,7 +22283,7 @@
       <c r="IX2" s="1"/>
       <c r="IY2" s="1"/>
     </row>
-    <row r="3" spans="1:259" ht="21" customHeight="1">
+    <row r="3" spans="1:259" ht="21" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -22485,23 +22544,23 @@
       <c r="IX3" s="1"/>
       <c r="IY3" s="1"/>
     </row>
-    <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="71" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -22759,12 +22818,12 @@
       <c r="IY4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -23020,25 +23079,25 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="32">
         <v>43471.5</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="32">
         <v>43472.5</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <v>0.5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="33">
         <v>6</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -23293,23 +23352,23 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="35">
         <v>43472</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="35">
         <v>43472.5</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34">
         <v>0.5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="36">
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -23564,25 +23623,25 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="37">
         <v>43472.5</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="37">
         <v>43473</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="26">
         <v>0.5</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -23837,25 +23896,25 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="32">
         <v>43472.5</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="32">
         <v>43473</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <v>0.5</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="33">
         <v>1.5</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -24110,23 +24169,23 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="62">
         <v>43473</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="62">
         <v>43475</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="63">
         <v>2</v>
       </c>
-      <c r="F10" s="34">
-        <v>8</v>
+      <c r="F10" s="36">
+        <v>6</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -24381,25 +24440,25 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="48">
-        <v>43473.5</v>
+      <c r="C11" s="64">
+        <v>43475</v>
       </c>
-      <c r="D11" s="48">
-        <v>43476</v>
+      <c r="D11" s="39">
+        <v>43477</v>
       </c>
-      <c r="E11" s="50">
-        <v>2.5</v>
+      <c r="E11" s="40">
+        <v>2</v>
       </c>
-      <c r="F11" s="51">
-        <v>10</v>
+      <c r="F11" s="41">
+        <v>8</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -24654,23 +24713,23 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="60"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="43">
         <v>43473</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="43">
         <v>43474</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="42">
         <v>1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="44">
         <v>5</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -24925,23 +24984,23 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="45">
         <v>43473</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="45">
         <v>43474</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="36">
         <v>5</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -25196,25 +25255,25 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="43">
-        <v>43479</v>
+      <c r="C14" s="65">
+        <v>43475</v>
       </c>
-      <c r="D14" s="43">
-        <v>43480</v>
+      <c r="D14" s="46">
+        <v>43477</v>
       </c>
-      <c r="E14" s="50">
-        <v>1</v>
+      <c r="E14" s="40">
+        <v>2</v>
       </c>
-      <c r="F14" s="51">
-        <v>6</v>
+      <c r="F14" s="41">
+        <v>12</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -25469,23 +25528,23 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="44">
-        <v>43480</v>
+      <c r="C15" s="81">
+        <v>43475</v>
       </c>
-      <c r="D15" s="44">
-        <v>43481</v>
+      <c r="D15" s="47">
+        <v>43477</v>
       </c>
-      <c r="E15" s="52">
-        <v>1</v>
+      <c r="E15" s="48">
+        <v>2</v>
       </c>
-      <c r="F15" s="53">
-        <v>6</v>
+      <c r="F15" s="49">
+        <v>12</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -25740,23 +25799,23 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="45">
-        <v>43481</v>
+      <c r="C16" s="82">
+        <v>43475</v>
       </c>
-      <c r="D16" s="45">
-        <v>43482</v>
+      <c r="D16" s="50">
+        <v>43477</v>
       </c>
-      <c r="E16" s="54">
-        <v>1</v>
+      <c r="E16" s="51">
+        <v>2</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <v>6</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -26011,25 +26070,25 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="46">
         <v>43479</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="46">
         <v>43483</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="40">
         <v>5</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="41">
         <v>6</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -26284,23 +26343,23 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="50">
         <v>43479</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="50">
         <v>43483</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="51">
         <v>5</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="52">
         <v>6</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -26555,25 +26614,25 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="54">
         <v>43472</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="54">
         <v>43483</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="53">
         <v>12</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="55">
         <v>1.5</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -26828,25 +26887,25 @@
       <c r="IY19" s="1"/>
     </row>
     <row r="20" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="54">
         <v>43472</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="54">
         <v>43483</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="53">
         <v>12</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="55">
         <v>1.5</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -27101,25 +27160,25 @@
       <c r="IY20" s="1"/>
     </row>
     <row r="21" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="46">
-        <v>43479</v>
+      <c r="C21" s="56">
+        <v>43474</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="56">
         <v>43483</v>
       </c>
-      <c r="E21" s="56">
-        <v>1</v>
+      <c r="E21" s="57">
+        <v>10</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="58">
         <v>20</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -27374,13 +27433,13 @@
       <c r="IY21" s="1"/>
     </row>
     <row r="22" spans="1:259">
-      <c r="A22" s="39"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -29205,23 +29264,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -29470,21 +29529,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -29733,19 +29792,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -29994,19 +30053,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -30591,13 +30650,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="63" t="s">
+      <c r="V36" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -30854,11 +30913,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -31115,11 +31174,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -31376,11 +31435,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -31637,11 +31696,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -31898,11 +31957,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -32420,13 +32479,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="64" t="s">
+      <c r="V43" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -32683,11 +32742,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -32944,12 +33003,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="64" t="s">
+      <c r="V45" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -33207,13 +33266,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="64" t="s">
+      <c r="V46" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -40555,17 +40614,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G30:S32"/>
+    <mergeCell ref="V36:Z41"/>
+    <mergeCell ref="V43:Z44"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G30:S32"/>
-    <mergeCell ref="V36:Z41"/>
-    <mergeCell ref="V43:Z44"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="V46:Z46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>

--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92672466-C2D3-4700-B8F1-B48C4CDA29C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E36C5E-04BB-484F-82D0-EA58578D314A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E36C5E-04BB-484F-82D0-EA58578D314A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4BF47-8A7C-45E5-93A8-4377D784734D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Début</t>
   </si>
@@ -186,6 +186,12 @@
   <si>
     <t>Installation logiciels</t>
   </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>Visualisations</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -587,12 +593,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,15 +777,6 @@
     <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,15 +793,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +834,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -797,26 +861,53 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1756,9 +1847,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Taches effectuees'!$B$5:$B$22</c:f>
+              <c:f>'Taches effectuees'!$B$5:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="1">
                   <c:v>Travail préparatoire</c:v>
                 </c:pt>
@@ -1784,27 +1875,30 @@
                   <c:v>Variables rapides</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Logit</c:v>
+                  <c:v>KMeans</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KMeans</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>KNN</c:v>
+                  <c:v>CAH</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Visualisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Qualite prediction notes</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Performance prediction temps de calcul</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Management</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Qualité</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Rapport</c:v>
                 </c:pt>
               </c:strCache>
@@ -1812,10 +1906,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Taches effectuees'!$C$5:$C$22</c:f>
+              <c:f>'Taches effectuees'!$C$5:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="1">
                   <c:v>43471.5</c:v>
                 </c:pt>
@@ -1847,21 +1941,24 @@
                   <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43475</c:v>
+                  <c:v>43479</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43479</c:v>
+                  <c:v>43480</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43472</c:v>
+                  <c:v>43479</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>43474</c:v>
                 </c:pt>
               </c:numCache>
@@ -1993,10 +2090,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2014,10 +2108,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2035,10 +2126,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2092,6 +2180,27 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-0029-4ECB-8A74-03B83C743BC8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct5">
@@ -2123,9 +2232,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Taches effectuees'!$B$5:$B$22</c:f>
+              <c:f>'Taches effectuees'!$B$5:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="1">
                   <c:v>Travail préparatoire</c:v>
                 </c:pt>
@@ -2151,27 +2260,30 @@
                   <c:v>Variables rapides</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Logit</c:v>
+                  <c:v>KMeans</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KMeans</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>KNN</c:v>
+                  <c:v>CAH</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Visualisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Qualite prediction notes</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Performance prediction temps de calcul</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Management</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Qualité</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Rapport</c:v>
                 </c:pt>
               </c:strCache>
@@ -2179,10 +2291,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Taches effectuees'!$E$5:$E$22</c:f>
+              <c:f>'Taches effectuees'!$E$5:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -2214,22 +2326,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,7 +2598,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>599835</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2514,13 +2629,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>132750</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4192,16 +4307,16 @@
       <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="54">
         <v>43471.5</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="54">
         <v>43472</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="50">
         <v>0.5</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="52">
         <v>6</v>
       </c>
       <c r="G6" s="18"/>
@@ -4459,7 +4574,7 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="31.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4732,7 +4847,7 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
@@ -5003,7 +5118,7 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -5276,7 +5391,7 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
@@ -5547,7 +5662,7 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -5820,7 +5935,7 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="78"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -6091,7 +6206,7 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
@@ -6362,16 +6477,16 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="55">
         <v>43479</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="55">
         <v>43480</v>
       </c>
       <c r="E14" s="31">
@@ -6635,7 +6750,7 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="78"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -6906,7 +7021,7 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="77"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
@@ -7177,16 +7292,16 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="55">
         <v>43479</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="55">
         <v>43483</v>
       </c>
       <c r="E17" s="31">
@@ -7450,7 +7565,7 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
@@ -7727,16 +7842,16 @@
       <c r="B19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="51">
         <v>43472</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="51">
         <v>43483</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="50">
         <v>12</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="52">
         <v>3</v>
       </c>
       <c r="G19" s="18"/>
@@ -8000,16 +8115,16 @@
       <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="51">
         <v>43472</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="51">
         <v>43483</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="50">
         <v>12</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="52">
         <v>4.5</v>
       </c>
       <c r="G20" s="19"/>
@@ -8273,16 +8388,16 @@
       <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="51">
         <v>43472</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="51">
         <v>43483</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="50">
         <v>12</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="52">
         <v>20</v>
       </c>
       <c r="G21" s="19"/>
@@ -8542,8 +8657,8 @@
     <row r="22" spans="1:259">
       <c r="A22" s="26"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="19"/>
@@ -10371,23 +10486,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -10636,21 +10751,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -10899,19 +11014,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -11160,19 +11275,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -11757,13 +11872,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="75" t="s">
+      <c r="V36" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -12020,11 +12135,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -12281,11 +12396,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -12542,11 +12657,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -12803,11 +12918,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13064,11 +13179,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -13586,13 +13701,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="72" t="s">
+      <c r="V43" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -13849,11 +13964,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -14110,12 +14225,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="72" t="s">
+      <c r="V45" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -14373,13 +14488,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="72" t="s">
+      <c r="V46" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -21721,17 +21836,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="G30:S32"/>
     <mergeCell ref="V36:Z41"/>
     <mergeCell ref="V43:Z44"/>
     <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C3673B30-6B6A-4991-B4FA-78872317CBE2}"/>
@@ -21748,7 +21863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FF2C5-34FB-4E9B-94C5-A9F012D87FA9}">
-  <dimension ref="A1:IY75"/>
+  <dimension ref="A1:IY76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -22545,22 +22660,22 @@
       <c r="IY3" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="65" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -22818,12 +22933,12 @@
       <c r="IY4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -23079,7 +23194,7 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -23352,7 +23467,7 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A7" s="80"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="25" t="s">
         <v>34</v>
       </c>
@@ -23896,7 +24011,7 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -24169,17 +24284,17 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="56">
         <v>43473</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="56">
         <v>43475</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="57">
         <v>2</v>
       </c>
       <c r="F10" s="36">
@@ -24440,13 +24555,13 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="58">
         <v>43475</v>
       </c>
       <c r="D11" s="39">
@@ -24713,7 +24828,7 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="78"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -24984,7 +25099,7 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
@@ -25255,22 +25370,22 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
+      <c r="B14" s="81" t="s">
+        <v>26</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="82">
         <v>43475</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="82">
         <v>43477</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="83">
         <v>2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="84">
         <v>12</v>
       </c>
       <c r="G14" s="18"/>
@@ -25528,21 +25643,21 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="78"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="66">
         <v>43475</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="66">
         <v>43477</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="77">
         <v>2</v>
       </c>
-      <c r="F15" s="49">
-        <v>12</v>
+      <c r="F15" s="78">
+        <v>6</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="1"/>
@@ -25798,22 +25913,22 @@
       <c r="IX15" s="1"/>
       <c r="IY15" s="1"/>
     </row>
-    <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="25" t="s">
-        <v>25</v>
+    <row r="16" spans="1:259">
+      <c r="A16" s="79"/>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
       </c>
-      <c r="C16" s="82">
-        <v>43475</v>
+      <c r="C16" s="66">
+        <v>43479</v>
       </c>
-      <c r="D16" s="50">
-        <v>43477</v>
+      <c r="D16" s="66">
+        <v>43480</v>
       </c>
-      <c r="E16" s="51">
-        <v>2</v>
+      <c r="E16" s="77">
+        <v>1</v>
       </c>
-      <c r="F16" s="52">
-        <v>6</v>
+      <c r="F16" s="78">
+        <v>4</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="1"/>
@@ -26069,24 +26184,22 @@
       <c r="IX16" s="1"/>
       <c r="IY16" s="1"/>
     </row>
-    <row r="17" spans="1:259">
-      <c r="A17" s="76" t="s">
-        <v>13</v>
+    <row r="17" spans="1:259" ht="16.2" thickBot="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="85" t="s">
+        <v>36</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="46">
+      <c r="C17" s="80">
         <v>43479</v>
       </c>
-      <c r="D17" s="46">
-        <v>43483</v>
+      <c r="D17" s="80">
+        <v>43480</v>
       </c>
-      <c r="E17" s="40">
-        <v>5</v>
+      <c r="E17" s="86">
+        <v>1</v>
       </c>
-      <c r="F17" s="41">
-        <v>6</v>
+      <c r="F17" s="87">
+        <v>10</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="1"/>
@@ -26342,21 +26455,23 @@
       <c r="IX17" s="1"/>
       <c r="IY17" s="1"/>
     </row>
-    <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="25" t="s">
-        <v>28</v>
+    <row r="18" spans="1:259">
+      <c r="A18" s="68" t="s">
+        <v>13</v>
       </c>
-      <c r="C18" s="50">
-        <v>43479</v>
+      <c r="B18" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="D18" s="50">
+      <c r="C18" s="59">
+        <v>43480</v>
+      </c>
+      <c r="D18" s="46">
         <v>43483</v>
       </c>
-      <c r="E18" s="51">
-        <v>5</v>
+      <c r="E18" s="40">
+        <v>3</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="41">
         <v>6</v>
       </c>
       <c r="G18" s="18"/>
@@ -26613,24 +26728,22 @@
       <c r="IX18" s="1"/>
       <c r="IY18" s="1"/>
     </row>
-    <row r="19" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A19" s="22" t="s">
-        <v>29</v>
+    <row r="19" spans="1:259" ht="31.8" thickBot="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>29</v>
+      <c r="C19" s="67">
+        <v>43479</v>
       </c>
-      <c r="C19" s="54">
-        <v>43472</v>
-      </c>
-      <c r="D19" s="54">
+      <c r="D19" s="47">
         <v>43483</v>
       </c>
-      <c r="E19" s="53">
-        <v>12</v>
+      <c r="E19" s="48">
+        <v>4</v>
       </c>
-      <c r="F19" s="55">
-        <v>1.5</v>
+      <c r="F19" s="49">
+        <v>6</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
@@ -26888,24 +27001,24 @@
     </row>
     <row r="20" spans="1:259" ht="16.2" thickBot="1">
       <c r="A20" s="22" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="51">
         <v>43472</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="51">
         <v>43483</v>
       </c>
-      <c r="E20" s="53">
-        <v>12</v>
+      <c r="E20" s="50">
+        <v>11</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="52">
         <v>1.5</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -27161,22 +27274,22 @@
     </row>
     <row r="21" spans="1:259" ht="16.2" thickBot="1">
       <c r="A21" s="22" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
-      <c r="C21" s="56">
-        <v>43474</v>
+      <c r="C21" s="51">
+        <v>43472</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="51">
         <v>43483</v>
       </c>
-      <c r="E21" s="57">
-        <v>10</v>
+      <c r="E21" s="50">
+        <v>11</v>
       </c>
-      <c r="F21" s="58">
-        <v>20</v>
+      <c r="F21" s="52">
+        <v>1.5</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
@@ -27432,13 +27545,25 @@
       <c r="IX21" s="1"/>
       <c r="IY21" s="1"/>
     </row>
-    <row r="22" spans="1:259">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+    <row r="22" spans="1:259" ht="16.2" thickBot="1">
+      <c r="A22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="88">
+        <v>43474</v>
+      </c>
+      <c r="D22" s="88">
+        <v>43483</v>
+      </c>
+      <c r="E22" s="89">
+        <v>9</v>
+      </c>
+      <c r="F22" s="90">
+        <v>20</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -27694,13 +27819,16 @@
       <c r="IY22" s="1"/>
     </row>
     <row r="23" spans="1:259">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26">
+        <f>SUM(F5:F22)</f>
+        <v>106.5</v>
+      </c>
+      <c r="G23" s="19"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -27713,7 +27841,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -27956,11 +28084,11 @@
     </row>
     <row r="24" spans="1:259">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -27973,11 +28101,11 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -28998,34 +29126,34 @@
       <c r="IX27" s="1"/>
       <c r="IY27" s="1"/>
     </row>
-    <row r="28" spans="1:259" ht="21">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
+    <row r="28" spans="1:259">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -29259,28 +29387,26 @@
       <c r="IX28" s="1"/>
       <c r="IY28" s="1"/>
     </row>
-    <row r="29" spans="1:259" ht="40.799999999999997">
+    <row r="29" spans="1:259" ht="21">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -29522,28 +29648,28 @@
       <c r="IX29" s="1"/>
       <c r="IY29" s="1"/>
     </row>
-    <row r="30" spans="1:259" ht="18" customHeight="1">
+    <row r="30" spans="1:259" ht="40.799999999999997">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="74" t="s">
-        <v>4</v>
+      <c r="E30" s="72" t="s">
+        <v>3</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -29785,26 +29911,28 @@
       <c r="IX30" s="1"/>
       <c r="IY30" s="1"/>
     </row>
-    <row r="31" spans="1:259" ht="16.2" customHeight="1">
+    <row r="31" spans="1:259" ht="18" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -30046,26 +30174,26 @@
       <c r="IX31" s="1"/>
       <c r="IY31" s="1"/>
     </row>
-    <row r="32" spans="1:259" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:259" ht="16.2" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -30307,26 +30435,26 @@
       <c r="IX32" s="1"/>
       <c r="IY32" s="1"/>
     </row>
-    <row r="33" spans="1:259" s="1" customFormat="1" ht="22.2" customHeight="1">
+    <row r="33" spans="1:259" ht="17.399999999999999" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -30335,12 +30463,244 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="1"/>
+      <c r="DB33" s="1"/>
+      <c r="DC33" s="1"/>
+      <c r="DD33" s="1"/>
+      <c r="DE33" s="1"/>
+      <c r="DF33" s="1"/>
+      <c r="DG33" s="1"/>
+      <c r="DH33" s="1"/>
+      <c r="DI33" s="1"/>
+      <c r="DJ33" s="1"/>
+      <c r="DK33" s="1"/>
+      <c r="DL33" s="1"/>
+      <c r="DM33" s="1"/>
+      <c r="DN33" s="1"/>
+      <c r="DO33" s="1"/>
+      <c r="DP33" s="1"/>
+      <c r="DQ33" s="1"/>
+      <c r="DR33" s="1"/>
+      <c r="DS33" s="1"/>
+      <c r="DT33" s="1"/>
+      <c r="DU33" s="1"/>
+      <c r="DV33" s="1"/>
+      <c r="DW33" s="1"/>
+      <c r="DX33" s="1"/>
+      <c r="DY33" s="1"/>
+      <c r="DZ33" s="1"/>
+      <c r="EA33" s="1"/>
+      <c r="EB33" s="1"/>
+      <c r="EC33" s="1"/>
+      <c r="ED33" s="1"/>
+      <c r="EE33" s="1"/>
+      <c r="EF33" s="1"/>
+      <c r="EG33" s="1"/>
+      <c r="EH33" s="1"/>
+      <c r="EI33" s="1"/>
+      <c r="EJ33" s="1"/>
+      <c r="EK33" s="1"/>
+      <c r="EL33" s="1"/>
+      <c r="EM33" s="1"/>
+      <c r="EN33" s="1"/>
+      <c r="EO33" s="1"/>
+      <c r="EP33" s="1"/>
+      <c r="EQ33" s="1"/>
+      <c r="ER33" s="1"/>
+      <c r="ES33" s="1"/>
+      <c r="ET33" s="1"/>
+      <c r="EU33" s="1"/>
+      <c r="EV33" s="1"/>
+      <c r="EW33" s="1"/>
+      <c r="EX33" s="1"/>
+      <c r="EY33" s="1"/>
+      <c r="EZ33" s="1"/>
+      <c r="FA33" s="1"/>
+      <c r="FB33" s="1"/>
+      <c r="FC33" s="1"/>
+      <c r="FD33" s="1"/>
+      <c r="FE33" s="1"/>
+      <c r="FF33" s="1"/>
+      <c r="FG33" s="1"/>
+      <c r="FH33" s="1"/>
+      <c r="FI33" s="1"/>
+      <c r="FJ33" s="1"/>
+      <c r="FK33" s="1"/>
+      <c r="FL33" s="1"/>
+      <c r="FM33" s="1"/>
+      <c r="FN33" s="1"/>
+      <c r="FO33" s="1"/>
+      <c r="FP33" s="1"/>
+      <c r="FQ33" s="1"/>
+      <c r="FR33" s="1"/>
+      <c r="FS33" s="1"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" s="1"/>
+      <c r="FW33" s="1"/>
+      <c r="FX33" s="1"/>
+      <c r="FY33" s="1"/>
+      <c r="FZ33" s="1"/>
+      <c r="GA33" s="1"/>
+      <c r="GB33" s="1"/>
+      <c r="GC33" s="1"/>
+      <c r="GD33" s="1"/>
+      <c r="GE33" s="1"/>
+      <c r="GF33" s="1"/>
+      <c r="GG33" s="1"/>
+      <c r="GH33" s="1"/>
+      <c r="GI33" s="1"/>
+      <c r="GJ33" s="1"/>
+      <c r="GK33" s="1"/>
+      <c r="GL33" s="1"/>
+      <c r="GM33" s="1"/>
+      <c r="GN33" s="1"/>
+      <c r="GO33" s="1"/>
+      <c r="GP33" s="1"/>
+      <c r="GQ33" s="1"/>
+      <c r="GR33" s="1"/>
+      <c r="GS33" s="1"/>
+      <c r="GT33" s="1"/>
+      <c r="GU33" s="1"/>
+      <c r="GV33" s="1"/>
+      <c r="GW33" s="1"/>
+      <c r="GX33" s="1"/>
+      <c r="GY33" s="1"/>
+      <c r="GZ33" s="1"/>
+      <c r="HA33" s="1"/>
+      <c r="HB33" s="1"/>
+      <c r="HC33" s="1"/>
+      <c r="HD33" s="1"/>
+      <c r="HE33" s="1"/>
+      <c r="HF33" s="1"/>
+      <c r="HG33" s="1"/>
+      <c r="HH33" s="1"/>
+      <c r="HI33" s="1"/>
+      <c r="HJ33" s="1"/>
+      <c r="HK33" s="1"/>
+      <c r="HL33" s="1"/>
+      <c r="HM33" s="1"/>
+      <c r="HN33" s="1"/>
+      <c r="HO33" s="1"/>
+      <c r="HP33" s="1"/>
+      <c r="HQ33" s="1"/>
+      <c r="HR33" s="1"/>
+      <c r="HS33" s="1"/>
+      <c r="HT33" s="1"/>
+      <c r="HU33" s="1"/>
+      <c r="HV33" s="1"/>
+      <c r="HW33" s="1"/>
+      <c r="HX33" s="1"/>
+      <c r="HY33" s="1"/>
+      <c r="HZ33" s="1"/>
+      <c r="IA33" s="1"/>
+      <c r="IB33" s="1"/>
+      <c r="IC33" s="1"/>
+      <c r="ID33" s="1"/>
+      <c r="IE33" s="1"/>
+      <c r="IF33" s="1"/>
+      <c r="IG33" s="1"/>
+      <c r="IH33" s="1"/>
+      <c r="II33" s="1"/>
+      <c r="IJ33" s="1"/>
+      <c r="IK33" s="1"/>
+      <c r="IL33" s="1"/>
+      <c r="IM33" s="1"/>
+      <c r="IN33" s="1"/>
+      <c r="IO33" s="1"/>
+      <c r="IP33" s="1"/>
+      <c r="IQ33" s="1"/>
+      <c r="IR33" s="1"/>
+      <c r="IS33" s="1"/>
+      <c r="IT33" s="1"/>
+      <c r="IU33" s="1"/>
+      <c r="IV33" s="1"/>
+      <c r="IW33" s="1"/>
+      <c r="IX33" s="1"/>
+      <c r="IY33" s="1"/>
     </row>
-    <row r="34" spans="1:259" ht="19.2" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+    <row r="34" spans="1:259" s="1" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="8"/>
@@ -30365,298 +30725,62 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:259" ht="21">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="1"/>
-      <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
-      <c r="BZ35" s="1"/>
-      <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-      <c r="CI35" s="1"/>
-      <c r="CJ35" s="1"/>
-      <c r="CK35" s="1"/>
-      <c r="CL35" s="1"/>
-      <c r="CM35" s="1"/>
-      <c r="CN35" s="1"/>
-      <c r="CO35" s="1"/>
-      <c r="CP35" s="1"/>
-      <c r="CQ35" s="1"/>
-      <c r="CR35" s="1"/>
-      <c r="CS35" s="1"/>
-      <c r="CT35" s="1"/>
-      <c r="CU35" s="1"/>
-      <c r="CV35" s="1"/>
-      <c r="CW35" s="1"/>
-      <c r="CX35" s="1"/>
-      <c r="CY35" s="1"/>
-      <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
-      <c r="DB35" s="1"/>
-      <c r="DC35" s="1"/>
-      <c r="DD35" s="1"/>
-      <c r="DE35" s="1"/>
-      <c r="DF35" s="1"/>
-      <c r="DG35" s="1"/>
-      <c r="DH35" s="1"/>
-      <c r="DI35" s="1"/>
-      <c r="DJ35" s="1"/>
-      <c r="DK35" s="1"/>
-      <c r="DL35" s="1"/>
-      <c r="DM35" s="1"/>
-      <c r="DN35" s="1"/>
-      <c r="DO35" s="1"/>
-      <c r="DP35" s="1"/>
-      <c r="DQ35" s="1"/>
-      <c r="DR35" s="1"/>
-      <c r="DS35" s="1"/>
-      <c r="DT35" s="1"/>
-      <c r="DU35" s="1"/>
-      <c r="DV35" s="1"/>
-      <c r="DW35" s="1"/>
-      <c r="DX35" s="1"/>
-      <c r="DY35" s="1"/>
-      <c r="DZ35" s="1"/>
-      <c r="EA35" s="1"/>
-      <c r="EB35" s="1"/>
-      <c r="EC35" s="1"/>
-      <c r="ED35" s="1"/>
-      <c r="EE35" s="1"/>
-      <c r="EF35" s="1"/>
-      <c r="EG35" s="1"/>
-      <c r="EH35" s="1"/>
-      <c r="EI35" s="1"/>
-      <c r="EJ35" s="1"/>
-      <c r="EK35" s="1"/>
-      <c r="EL35" s="1"/>
-      <c r="EM35" s="1"/>
-      <c r="EN35" s="1"/>
-      <c r="EO35" s="1"/>
-      <c r="EP35" s="1"/>
-      <c r="EQ35" s="1"/>
-      <c r="ER35" s="1"/>
-      <c r="ES35" s="1"/>
-      <c r="ET35" s="1"/>
-      <c r="EU35" s="1"/>
-      <c r="EV35" s="1"/>
-      <c r="EW35" s="1"/>
-      <c r="EX35" s="1"/>
-      <c r="EY35" s="1"/>
-      <c r="EZ35" s="1"/>
-      <c r="FA35" s="1"/>
-      <c r="FB35" s="1"/>
-      <c r="FC35" s="1"/>
-      <c r="FD35" s="1"/>
-      <c r="FE35" s="1"/>
-      <c r="FF35" s="1"/>
-      <c r="FG35" s="1"/>
-      <c r="FH35" s="1"/>
-      <c r="FI35" s="1"/>
-      <c r="FJ35" s="1"/>
-      <c r="FK35" s="1"/>
-      <c r="FL35" s="1"/>
-      <c r="FM35" s="1"/>
-      <c r="FN35" s="1"/>
-      <c r="FO35" s="1"/>
-      <c r="FP35" s="1"/>
-      <c r="FQ35" s="1"/>
-      <c r="FR35" s="1"/>
-      <c r="FS35" s="1"/>
-      <c r="FT35" s="1"/>
-      <c r="FU35" s="1"/>
-      <c r="FV35" s="1"/>
-      <c r="FW35" s="1"/>
-      <c r="FX35" s="1"/>
-      <c r="FY35" s="1"/>
-      <c r="FZ35" s="1"/>
-      <c r="GA35" s="1"/>
-      <c r="GB35" s="1"/>
-      <c r="GC35" s="1"/>
-      <c r="GD35" s="1"/>
-      <c r="GE35" s="1"/>
-      <c r="GF35" s="1"/>
-      <c r="GG35" s="1"/>
-      <c r="GH35" s="1"/>
-      <c r="GI35" s="1"/>
-      <c r="GJ35" s="1"/>
-      <c r="GK35" s="1"/>
-      <c r="GL35" s="1"/>
-      <c r="GM35" s="1"/>
-      <c r="GN35" s="1"/>
-      <c r="GO35" s="1"/>
-      <c r="GP35" s="1"/>
-      <c r="GQ35" s="1"/>
-      <c r="GR35" s="1"/>
-      <c r="GS35" s="1"/>
-      <c r="GT35" s="1"/>
-      <c r="GU35" s="1"/>
-      <c r="GV35" s="1"/>
-      <c r="GW35" s="1"/>
-      <c r="GX35" s="1"/>
-      <c r="GY35" s="1"/>
-      <c r="GZ35" s="1"/>
-      <c r="HA35" s="1"/>
-      <c r="HB35" s="1"/>
-      <c r="HC35" s="1"/>
-      <c r="HD35" s="1"/>
-      <c r="HE35" s="1"/>
-      <c r="HF35" s="1"/>
-      <c r="HG35" s="1"/>
-      <c r="HH35" s="1"/>
-      <c r="HI35" s="1"/>
-      <c r="HJ35" s="1"/>
-      <c r="HK35" s="1"/>
-      <c r="HL35" s="1"/>
-      <c r="HM35" s="1"/>
-      <c r="HN35" s="1"/>
-      <c r="HO35" s="1"/>
-      <c r="HP35" s="1"/>
-      <c r="HQ35" s="1"/>
-      <c r="HR35" s="1"/>
-      <c r="HS35" s="1"/>
-      <c r="HT35" s="1"/>
-      <c r="HU35" s="1"/>
-      <c r="HV35" s="1"/>
-      <c r="HW35" s="1"/>
-      <c r="HX35" s="1"/>
-      <c r="HY35" s="1"/>
-      <c r="HZ35" s="1"/>
-      <c r="IA35" s="1"/>
-      <c r="IB35" s="1"/>
-      <c r="IC35" s="1"/>
-      <c r="ID35" s="1"/>
-      <c r="IE35" s="1"/>
-      <c r="IF35" s="1"/>
-      <c r="IG35" s="1"/>
-      <c r="IH35" s="1"/>
-      <c r="II35" s="1"/>
-      <c r="IJ35" s="1"/>
-      <c r="IK35" s="1"/>
-      <c r="IL35" s="1"/>
-      <c r="IM35" s="1"/>
-      <c r="IN35" s="1"/>
-      <c r="IO35" s="1"/>
-      <c r="IP35" s="1"/>
-      <c r="IQ35" s="1"/>
-      <c r="IR35" s="1"/>
-      <c r="IS35" s="1"/>
-      <c r="IT35" s="1"/>
-      <c r="IU35" s="1"/>
-      <c r="IV35" s="1"/>
-      <c r="IW35" s="1"/>
-      <c r="IX35" s="1"/>
-      <c r="IY35" s="1"/>
+    <row r="35" spans="1:259" ht="19.2" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:259" ht="15.6" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+    <row r="36" spans="1:259" ht="21">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -30891,10 +31015,12 @@
       <c r="IX36" s="1"/>
       <c r="IY36" s="1"/>
     </row>
-    <row r="37" spans="1:259">
+    <row r="37" spans="1:259" ht="15.6" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -30913,11 +31039,13 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
+      <c r="V37" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -31174,11 +31302,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -31435,11 +31563,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -31696,11 +31824,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -31957,11 +32085,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -32218,11 +32346,11 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -32479,13 +32607,11 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -32742,11 +32868,13 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
+      <c r="V44" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -32981,7 +33109,7 @@
       <c r="IX44" s="1"/>
       <c r="IY44" s="1"/>
     </row>
-    <row r="45" spans="1:259" ht="28.8">
+    <row r="45" spans="1:259">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -33003,13 +33131,11 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="15"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -33266,13 +33392,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="72" t="s">
-        <v>9</v>
+      <c r="V46" s="71" t="s">
+        <v>8</v>
       </c>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -33507,7 +33633,7 @@
       <c r="IX46" s="1"/>
       <c r="IY46" s="1"/>
     </row>
-    <row r="47" spans="1:259">
+    <row r="47" spans="1:259" ht="28.8">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -33529,11 +33655,13 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
+      <c r="V47" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -40582,6 +40710,238 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
+      <c r="CX74" s="1"/>
+      <c r="CY74" s="1"/>
+      <c r="CZ74" s="1"/>
+      <c r="DA74" s="1"/>
+      <c r="DB74" s="1"/>
+      <c r="DC74" s="1"/>
+      <c r="DD74" s="1"/>
+      <c r="DE74" s="1"/>
+      <c r="DF74" s="1"/>
+      <c r="DG74" s="1"/>
+      <c r="DH74" s="1"/>
+      <c r="DI74" s="1"/>
+      <c r="DJ74" s="1"/>
+      <c r="DK74" s="1"/>
+      <c r="DL74" s="1"/>
+      <c r="DM74" s="1"/>
+      <c r="DN74" s="1"/>
+      <c r="DO74" s="1"/>
+      <c r="DP74" s="1"/>
+      <c r="DQ74" s="1"/>
+      <c r="DR74" s="1"/>
+      <c r="DS74" s="1"/>
+      <c r="DT74" s="1"/>
+      <c r="DU74" s="1"/>
+      <c r="DV74" s="1"/>
+      <c r="DW74" s="1"/>
+      <c r="DX74" s="1"/>
+      <c r="DY74" s="1"/>
+      <c r="DZ74" s="1"/>
+      <c r="EA74" s="1"/>
+      <c r="EB74" s="1"/>
+      <c r="EC74" s="1"/>
+      <c r="ED74" s="1"/>
+      <c r="EE74" s="1"/>
+      <c r="EF74" s="1"/>
+      <c r="EG74" s="1"/>
+      <c r="EH74" s="1"/>
+      <c r="EI74" s="1"/>
+      <c r="EJ74" s="1"/>
+      <c r="EK74" s="1"/>
+      <c r="EL74" s="1"/>
+      <c r="EM74" s="1"/>
+      <c r="EN74" s="1"/>
+      <c r="EO74" s="1"/>
+      <c r="EP74" s="1"/>
+      <c r="EQ74" s="1"/>
+      <c r="ER74" s="1"/>
+      <c r="ES74" s="1"/>
+      <c r="ET74" s="1"/>
+      <c r="EU74" s="1"/>
+      <c r="EV74" s="1"/>
+      <c r="EW74" s="1"/>
+      <c r="EX74" s="1"/>
+      <c r="EY74" s="1"/>
+      <c r="EZ74" s="1"/>
+      <c r="FA74" s="1"/>
+      <c r="FB74" s="1"/>
+      <c r="FC74" s="1"/>
+      <c r="FD74" s="1"/>
+      <c r="FE74" s="1"/>
+      <c r="FF74" s="1"/>
+      <c r="FG74" s="1"/>
+      <c r="FH74" s="1"/>
+      <c r="FI74" s="1"/>
+      <c r="FJ74" s="1"/>
+      <c r="FK74" s="1"/>
+      <c r="FL74" s="1"/>
+      <c r="FM74" s="1"/>
+      <c r="FN74" s="1"/>
+      <c r="FO74" s="1"/>
+      <c r="FP74" s="1"/>
+      <c r="FQ74" s="1"/>
+      <c r="FR74" s="1"/>
+      <c r="FS74" s="1"/>
+      <c r="FT74" s="1"/>
+      <c r="FU74" s="1"/>
+      <c r="FV74" s="1"/>
+      <c r="FW74" s="1"/>
+      <c r="FX74" s="1"/>
+      <c r="FY74" s="1"/>
+      <c r="FZ74" s="1"/>
+      <c r="GA74" s="1"/>
+      <c r="GB74" s="1"/>
+      <c r="GC74" s="1"/>
+      <c r="GD74" s="1"/>
+      <c r="GE74" s="1"/>
+      <c r="GF74" s="1"/>
+      <c r="GG74" s="1"/>
+      <c r="GH74" s="1"/>
+      <c r="GI74" s="1"/>
+      <c r="GJ74" s="1"/>
+      <c r="GK74" s="1"/>
+      <c r="GL74" s="1"/>
+      <c r="GM74" s="1"/>
+      <c r="GN74" s="1"/>
+      <c r="GO74" s="1"/>
+      <c r="GP74" s="1"/>
+      <c r="GQ74" s="1"/>
+      <c r="GR74" s="1"/>
+      <c r="GS74" s="1"/>
+      <c r="GT74" s="1"/>
+      <c r="GU74" s="1"/>
+      <c r="GV74" s="1"/>
+      <c r="GW74" s="1"/>
+      <c r="GX74" s="1"/>
+      <c r="GY74" s="1"/>
+      <c r="GZ74" s="1"/>
+      <c r="HA74" s="1"/>
+      <c r="HB74" s="1"/>
+      <c r="HC74" s="1"/>
+      <c r="HD74" s="1"/>
+      <c r="HE74" s="1"/>
+      <c r="HF74" s="1"/>
+      <c r="HG74" s="1"/>
+      <c r="HH74" s="1"/>
+      <c r="HI74" s="1"/>
+      <c r="HJ74" s="1"/>
+      <c r="HK74" s="1"/>
+      <c r="HL74" s="1"/>
+      <c r="HM74" s="1"/>
+      <c r="HN74" s="1"/>
+      <c r="HO74" s="1"/>
+      <c r="HP74" s="1"/>
+      <c r="HQ74" s="1"/>
+      <c r="HR74" s="1"/>
+      <c r="HS74" s="1"/>
+      <c r="HT74" s="1"/>
+      <c r="HU74" s="1"/>
+      <c r="HV74" s="1"/>
+      <c r="HW74" s="1"/>
+      <c r="HX74" s="1"/>
+      <c r="HY74" s="1"/>
+      <c r="HZ74" s="1"/>
+      <c r="IA74" s="1"/>
+      <c r="IB74" s="1"/>
+      <c r="IC74" s="1"/>
+      <c r="ID74" s="1"/>
+      <c r="IE74" s="1"/>
+      <c r="IF74" s="1"/>
+      <c r="IG74" s="1"/>
+      <c r="IH74" s="1"/>
+      <c r="II74" s="1"/>
+      <c r="IJ74" s="1"/>
+      <c r="IK74" s="1"/>
+      <c r="IL74" s="1"/>
+      <c r="IM74" s="1"/>
+      <c r="IN74" s="1"/>
+      <c r="IO74" s="1"/>
+      <c r="IP74" s="1"/>
+      <c r="IQ74" s="1"/>
+      <c r="IR74" s="1"/>
+      <c r="IS74" s="1"/>
+      <c r="IT74" s="1"/>
+      <c r="IU74" s="1"/>
+      <c r="IV74" s="1"/>
+      <c r="IW74" s="1"/>
+      <c r="IX74" s="1"/>
+      <c r="IY74" s="1"/>
     </row>
     <row r="75" spans="1:259">
       <c r="A75" s="15"/>
@@ -40612,23 +40972,52 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
     </row>
+    <row r="76" spans="1:259">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G30:S32"/>
-    <mergeCell ref="V36:Z41"/>
-    <mergeCell ref="V43:Z44"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="V46:Z46"/>
-    <mergeCell ref="E29:S29"/>
+    <mergeCell ref="E30:S30"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G31:S33"/>
+    <mergeCell ref="V37:Z42"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="V47:Z47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>
-    <hyperlink ref="G30" r:id="rId2" xr:uid="{C98531EC-AEE7-442F-B97B-0879482323F7}"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>
+    <hyperlink ref="G31" r:id="rId2" xr:uid="{C98531EC-AEE7-442F-B97B-0879482323F7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4BF47-8A7C-45E5-93A8-4377D784734D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E8192E-BB84-4C51-A079-B05C61E69142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Début</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t>Visualisations</t>
   </si>
+  <si>
+    <t>pers</t>
+  </si>
 </sst>
 </file>
 
@@ -312,12 +315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6CD40"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF558ED5"/>
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
@@ -340,8 +337,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF28D2FF"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -362,19 +365,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -573,19 +563,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -629,8 +606,117 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -642,8 +728,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -659,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,24 +765,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -700,66 +797,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,146 +841,171 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,6 +1081,14 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFBFBFB"/>
+      <color rgb="FFF7F7F7"/>
+      <color rgb="FF28D2FF"/>
+      <color rgb="FFABEDFF"/>
+      <color rgb="FF00799A"/>
+      <color rgb="FF00A5D2"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1009,53 +1115,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Modèle de chronologie pour Excel</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34423804044057199"/>
-          <c:y val="9.6179775280898893E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1239,6 +1299,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="28D2FF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,9 +1313,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00799A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1270,7 +1331,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1288,7 +1349,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1306,7 +1367,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1324,9 +1385,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1344,10 +1403,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1365,10 +1421,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1386,10 +1439,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1407,10 +1457,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1428,10 +1475,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1749,53 +1793,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Modèle de chronologie pour Excel</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34423804044057199"/>
-          <c:y val="9.6179775280898893E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1996,9 +1994,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00799A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2016,9 +2012,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00799A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2036,7 +2030,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2054,7 +2048,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2072,7 +2066,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2085,12 +2079,120 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="28D2FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-B58C-4095-B442-D78394B422CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2108,7 +2210,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2126,7 +2228,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="28D2FF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2144,10 +2246,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2165,10 +2264,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2186,10 +2282,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ABEDFF"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2311,7 +2404,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2332,7 +2425,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
@@ -2582,6 +2675,368 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94491DEC-8A80-43EB-AD99-F9F77BA05791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17430750" y="2619375"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00799A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BA18A8-B82F-4EDB-BF4C-C720D2596225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17430750" y="2876550"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="28D2FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031F42E4-DC51-4562-9096-734FFA30D909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17430750" y="3133725"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ABEDFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EA31EF-AC1B-4DF1-A1F6-83AA46B8B3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17706975" y="2552700"/>
+          <a:ext cx="1485900" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Tavail préparatoire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Etapes du Projet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Tâches</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> quotidiennes</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988B872B-3A3E-475C-BCD3-104E8DFF0925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430251" y="1143000"/>
+          <a:ext cx="1257300" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBFBFB"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2589,16 +3044,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>254535</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>599835</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>649365</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2634,7 +3089,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>132750</xdr:colOff>
+      <xdr:colOff>361350</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
@@ -2666,6 +3121,368 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBB4923-04C8-4270-8363-E28EED9DC4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18116550" y="2486025"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00799A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09689E3-D924-4555-98C6-86A5BA9FB60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18116550" y="2743200"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="28D2FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581DD2E-30C6-40BF-BB07-FF3F272B9683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18116550" y="3000375"/>
+          <a:ext cx="209550" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ABEDFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A57BE-8827-4AF4-81FD-E766E211ED17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18392775" y="2419350"/>
+          <a:ext cx="1485900" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Tavail préparatoire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Etapes du Projet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Tâches</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> quotidiennes</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C87927-2C90-46BC-A261-E5E800A36A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982700" y="1019175"/>
+          <a:ext cx="1304925" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBFBFB"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2970,9 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144F3FFB-B809-4299-B3A2-C349439187E7}">
   <dimension ref="A1:IY75"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
@@ -3505,7 +4320,7 @@
       <c r="IX2" s="1"/>
       <c r="IY2" s="1"/>
     </row>
-    <row r="3" spans="1:259" ht="21" customHeight="1">
+    <row r="3" spans="1:259" ht="21" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3766,23 +4581,23 @@
       <c r="IX3" s="1"/>
       <c r="IY3" s="1"/>
     </row>
-    <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="74" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -4040,12 +4855,12 @@
       <c r="IY4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4301,22 +5116,22 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="42">
         <v>43471.5</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="42">
         <v>43472</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="38">
         <v>0.5</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="40">
         <v>6</v>
       </c>
       <c r="G6" s="18"/>
@@ -4574,22 +5389,22 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="31.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="28">
         <v>43472</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="28">
         <v>43473.5</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>1.5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>6</v>
       </c>
       <c r="G7" s="18"/>
@@ -4847,20 +5662,20 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="31">
         <v>43473.5</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <v>43474.625</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>1.25</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="32">
         <v>5</v>
       </c>
       <c r="G8" s="18"/>
@@ -5118,22 +5933,22 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="28">
         <v>43473.5</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>43477</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>3.5</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>14</v>
       </c>
       <c r="G9" s="18"/>
@@ -5391,20 +6206,20 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="31">
         <v>43479</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="31">
         <v>43481</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="32">
         <v>16</v>
       </c>
       <c r="G10" s="18"/>
@@ -5662,22 +6477,22 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="28">
         <v>43473.5</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>43476</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>2.5</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <v>10</v>
       </c>
       <c r="G11" s="18"/>
@@ -5935,20 +6750,20 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="35">
         <v>43476</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="35">
         <v>43477</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="36">
         <v>5</v>
       </c>
       <c r="G12" s="18"/>
@@ -6206,20 +7021,20 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>43476</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="37">
         <v>43477</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <v>5</v>
       </c>
       <c r="G13" s="18"/>
@@ -6477,22 +7292,22 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="43">
         <v>43479</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="43">
         <v>43480</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>6</v>
       </c>
       <c r="G14" s="18"/>
@@ -6750,20 +7565,20 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="35">
         <v>43480</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="35">
         <v>43481</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="34">
         <v>1</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <v>6</v>
       </c>
       <c r="G15" s="18"/>
@@ -7021,20 +7836,20 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="37">
         <v>43481</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="37">
         <v>43482</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="32">
         <v>6</v>
       </c>
       <c r="G16" s="18"/>
@@ -7292,22 +8107,22 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="43">
         <v>43479</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="43">
         <v>43483</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <v>5</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <v>6</v>
       </c>
       <c r="G17" s="18"/>
@@ -7565,20 +8380,20 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="37">
         <v>43479</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="37">
         <v>43483</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="30">
         <v>5</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="32">
         <v>6</v>
       </c>
       <c r="G18" s="18"/>
@@ -7836,22 +8651,22 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="39">
         <v>43472</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="39">
         <v>43483</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="38">
         <v>12</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="40">
         <v>3</v>
       </c>
       <c r="G19" s="18"/>
@@ -8109,22 +8924,22 @@
       <c r="IY19" s="1"/>
     </row>
     <row r="20" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="39">
         <v>43472</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="39">
         <v>43483</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="38">
         <v>12</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="40">
         <v>4.5</v>
       </c>
       <c r="G20" s="19"/>
@@ -8382,22 +9197,22 @@
       <c r="IY20" s="1"/>
     </row>
     <row r="21" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="39">
         <v>43472</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="39">
         <v>43483</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="38">
         <v>12</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="40">
         <v>20</v>
       </c>
       <c r="G21" s="19"/>
@@ -8655,12 +9470,12 @@
       <c r="IY21" s="1"/>
     </row>
     <row r="22" spans="1:259">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -10486,23 +11301,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -10751,21 +11566,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -11014,19 +11829,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -11275,19 +12090,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -11872,13 +12687,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="74" t="s">
+      <c r="V36" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -12135,11 +12950,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -12396,11 +13211,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -12657,11 +13472,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -12918,11 +13733,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13179,11 +13994,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -13701,13 +14516,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="71" t="s">
+      <c r="V43" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -13964,11 +14779,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -14225,12 +15040,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="71" t="s">
+      <c r="V45" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -14488,13 +15303,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="71" t="s">
+      <c r="V46" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -21836,17 +22651,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="G30:S32"/>
     <mergeCell ref="V36:Z41"/>
     <mergeCell ref="V43:Z44"/>
     <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C3673B30-6B6A-4991-B4FA-78872317CBE2}"/>
@@ -21874,6 +22689,7 @@
     <col min="3" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:259">
@@ -22660,25 +23476,27 @@
       <c r="IY3" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="76" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -22933,13 +23751,13 @@
       <c r="IY4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -23194,25 +24012,28 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="28">
         <v>43471.5</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>43472.5</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>0.5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="78">
         <v>6</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="90">
+        <f>F6/E6</f>
+        <v>12</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -23467,23 +24288,26 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="31">
         <v>43472</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <v>43472.5</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>0.5</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="79">
         <v>6</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="90">
+        <f t="shared" ref="G7:G22" si="0">F7/E7</f>
+        <v>12</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -23738,25 +24562,28 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <v>43472.5</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="33">
         <v>43473</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>0.5</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="80">
         <v>2</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -24011,25 +24838,28 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="28">
         <v>43472.5</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>43473</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>0.5</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="78">
         <v>1.5</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="90">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -24284,23 +25114,26 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="44">
         <v>43473</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="44">
         <v>43475</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="45">
         <v>2</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="79">
         <v>6</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="90">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -24555,25 +25388,28 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="46">
         <v>43475</v>
       </c>
-      <c r="D11" s="39">
-        <v>43477</v>
+      <c r="D11" s="46">
+        <v>43481</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="75">
+        <v>6</v>
+      </c>
+      <c r="F11" s="81">
+        <v>12</v>
+      </c>
+      <c r="G11" s="90">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="41">
-        <v>8</v>
-      </c>
-      <c r="G11" s="18"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -24828,23 +25664,26 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="35">
         <v>43473</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="35">
         <v>43474</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="82">
         <v>5</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="90">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -25099,23 +25938,26 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>43473</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="37">
         <v>43474</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="79">
         <v>5</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="90">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -25370,25 +26212,28 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="56">
         <v>43475</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="56">
         <v>43477</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="57">
         <v>2</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="83">
         <v>12</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="90">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -25643,23 +26488,26 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="51">
         <v>43475</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="51">
         <v>43477</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="53">
         <v>2</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="84">
         <v>6</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="90">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -25914,23 +26762,26 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259">
-      <c r="A16" s="79"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="51">
         <v>43479</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="51">
         <v>43480</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="53">
         <v>1</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="84">
         <v>4</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -26185,23 +27036,26 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="85" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="54">
         <v>43479</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="54">
         <v>43480</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="59">
         <v>1</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="85">
         <v>10</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="90">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -26456,25 +27310,28 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="47">
         <v>43480</v>
       </c>
-      <c r="D18" s="46">
-        <v>43483</v>
+      <c r="D18" s="47">
+        <v>43481</v>
       </c>
-      <c r="E18" s="40">
-        <v>3</v>
+      <c r="E18" s="75">
+        <v>1</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="81">
         <v>6</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="90">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -26729,23 +27586,26 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="52">
         <v>43479</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="52">
         <v>43483</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="45">
         <v>4</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="86">
         <v>6</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="90">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -27000,25 +27860,28 @@
       <c r="IY19" s="1"/>
     </row>
     <row r="20" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="39">
         <v>43472</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="39">
         <v>43483</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="38">
         <v>11</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="87">
         <v>1.5</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="90">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -27273,25 +28136,28 @@
       <c r="IY20" s="1"/>
     </row>
     <row r="21" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="39">
         <v>43472</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="39">
         <v>43483</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="38">
         <v>11</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="87">
         <v>1.5</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="90">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -27546,25 +28412,28 @@
       <c r="IY21" s="1"/>
     </row>
     <row r="22" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="60">
         <v>43474</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="60">
         <v>43483</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="61">
         <v>9</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="88">
         <v>20</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="90">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -27818,17 +28687,17 @@
       <c r="IX22" s="1"/>
       <c r="IY22" s="1"/>
     </row>
-    <row r="23" spans="1:259">
-      <c r="A23" s="26"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26">
+    <row r="23" spans="1:259" ht="16.2" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="80">
         <f>SUM(F5:F22)</f>
-        <v>106.5</v>
+        <v>110.5</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -29653,23 +30522,23 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -29918,21 +30787,21 @@
       <c r="D31" s="4"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -30181,19 +31050,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -30442,19 +31311,19 @@
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -31039,13 +31908,13 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="74" t="s">
+      <c r="V37" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -31302,11 +32171,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -31563,11 +32432,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -31824,11 +32693,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -32085,11 +32954,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -32346,11 +33215,11 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -32868,13 +33737,13 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -33131,11 +34000,11 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -33392,12 +34261,12 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="71" t="s">
+      <c r="V46" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
@@ -33655,13 +34524,13 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="71" t="s">
+      <c r="V47" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -41003,17 +41872,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G31:S33"/>
+    <mergeCell ref="V37:Z42"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="V47:Z47"/>
     <mergeCell ref="E30:S30"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G31:S33"/>
-    <mergeCell ref="V37:Z42"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="V47:Z47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>

--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E8192E-BB84-4C51-A079-B05C61E69142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63165E03-EDBF-4D1A-8DA6-67F6C9B071ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="38">
   <si>
     <t>Début</t>
   </si>
@@ -300,7 +300,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +329,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -756,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,43 +913,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,12 +940,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -989,9 +947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,6 +961,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1329,14 +1320,6 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -1347,14 +1330,6 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -1365,14 +1340,6 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -1383,14 +1350,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -1401,14 +1360,6 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -1419,14 +1370,6 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="28D2FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-5AF6-47A5-90FF-FAB051BB56D6}"/>
@@ -2404,7 +2347,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -4582,22 +4525,22 @@
       <c r="IY3" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="64" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -5389,7 +5332,7 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="31.2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -5662,7 +5605,7 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
@@ -5933,7 +5876,7 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -6206,7 +6149,7 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
@@ -6477,7 +6420,7 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -6750,7 +6693,7 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="68"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -7021,7 +6964,7 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
@@ -7292,7 +7235,7 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -7565,7 +7508,7 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -7836,7 +7779,7 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
@@ -8107,7 +8050,7 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -8380,7 +8323,7 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
@@ -11301,23 +11244,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -11566,21 +11509,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -11829,19 +11772,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -12090,19 +12033,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -12687,13 +12630,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="65" t="s">
+      <c r="V36" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -12950,11 +12893,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -13211,11 +13154,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -13472,11 +13415,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -13733,11 +13676,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13994,11 +13937,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -14516,13 +14459,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="62" t="s">
+      <c r="V43" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -14779,11 +14722,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -15040,12 +14983,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="62" t="s">
+      <c r="V45" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -15303,13 +15246,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="62" t="s">
+      <c r="V46" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -22651,17 +22594,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="G30:S32"/>
     <mergeCell ref="V36:Z41"/>
     <mergeCell ref="V43:Z44"/>
     <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C3673B30-6B6A-4991-B4FA-78872317CBE2}"/>
@@ -23476,25 +23419,25 @@
       <c r="IY3" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="66" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1"/>
@@ -23756,8 +23699,8 @@
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="50"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="89"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -24012,7 +23955,7 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -24027,10 +23970,10 @@
       <c r="E6" s="27">
         <v>0.5</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="68">
         <v>6</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="77">
         <f>F6/E6</f>
         <v>12</v>
       </c>
@@ -24288,7 +24231,7 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A7" s="70"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
@@ -24301,10 +24244,10 @@
       <c r="E7" s="30">
         <v>0.5</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="69">
         <v>6</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="77">
         <f t="shared" ref="G7:G22" si="0">F7/E7</f>
         <v>12</v>
       </c>
@@ -24577,10 +24520,10 @@
       <c r="E8" s="25">
         <v>0.5</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="70">
         <v>2</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -24838,7 +24781,7 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -24853,10 +24796,10 @@
       <c r="E9" s="27">
         <v>0.5</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="89">
         <v>1.5</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -25114,7 +25057,7 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
@@ -25127,10 +25070,10 @@
       <c r="E10" s="45">
         <v>2</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="90">
         <v>6</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -25388,7 +25331,7 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -25398,15 +25341,15 @@
         <v>43475</v>
       </c>
       <c r="D11" s="46">
-        <v>43481</v>
+        <v>43482</v>
       </c>
-      <c r="E11" s="75">
-        <v>6</v>
+      <c r="E11" s="65">
+        <v>7</v>
       </c>
-      <c r="F11" s="81">
-        <v>12</v>
+      <c r="F11" s="89">
+        <v>14</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="77">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -25664,7 +25607,7 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="68"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -25677,10 +25620,10 @@
       <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="72">
         <v>5</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -25938,7 +25881,7 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
@@ -25951,10 +25894,10 @@
       <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="90">
         <v>5</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -26212,7 +26155,7 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="55" t="s">
@@ -26227,10 +26170,10 @@
       <c r="E14" s="57">
         <v>2</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="71">
         <v>12</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -26488,7 +26431,7 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="71"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -26501,10 +26444,10 @@
       <c r="E15" s="53">
         <v>2</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="72">
         <v>6</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -26762,7 +26705,7 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259">
-      <c r="A16" s="71"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
@@ -26775,10 +26718,10 @@
       <c r="E16" s="53">
         <v>1</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="72">
         <v>4</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -27036,7 +26979,7 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A17" s="67"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="58" t="s">
         <v>36</v>
       </c>
@@ -27049,10 +26992,10 @@
       <c r="E17" s="59">
         <v>1</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="73">
         <v>10</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="77">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -27310,7 +27253,7 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -27322,13 +27265,13 @@
       <c r="D18" s="47">
         <v>43481</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="65">
         <v>1</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="89">
         <v>6</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -27586,7 +27529,7 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
@@ -27599,10 +27542,10 @@
       <c r="E19" s="45">
         <v>4</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="90">
         <v>6</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="77">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -27875,10 +27818,10 @@
       <c r="E20" s="38">
         <v>11</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="75">
         <v>1.5</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="77">
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
@@ -28151,10 +28094,10 @@
       <c r="E21" s="38">
         <v>11</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="74">
         <v>1.5</v>
       </c>
-      <c r="G21" s="90">
+      <c r="G21" s="77">
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
@@ -28427,10 +28370,10 @@
       <c r="E22" s="61">
         <v>9</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="75">
         <v>20</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="77">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
@@ -28693,11 +28636,11 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="80">
+      <c r="F23" s="70">
         <f>SUM(F5:F22)</f>
-        <v>110.5</v>
+        <v>112.5</v>
       </c>
-      <c r="G23" s="91"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -30522,23 +30465,23 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -30787,21 +30730,21 @@
       <c r="D31" s="4"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -31050,19 +30993,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -31311,19 +31254,19 @@
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -31908,13 +31851,13 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="65" t="s">
+      <c r="V37" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -32171,11 +32114,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -32432,11 +32375,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -32693,11 +32636,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -32954,11 +32897,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -33215,11 +33158,11 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -33737,13 +33680,13 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="62" t="s">
+      <c r="V44" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -34000,11 +33943,11 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -34261,12 +34204,12 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="62" t="s">
+      <c r="V46" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
@@ -34524,13 +34467,13 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="62" t="s">
+      <c r="V47" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -41872,17 +41815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G31:S33"/>
-    <mergeCell ref="V37:Z42"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="V47:Z47"/>
     <mergeCell ref="E30:S30"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G31:S33"/>
+    <mergeCell ref="V37:Z42"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="V47:Z47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>

--- a/Rapport/Gantt_chart_excel_template-FR2.xlsx
+++ b/Rapport/Gantt_chart_excel_template-FR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\SID\S1\G2_ Projet\G2_Filtrage_Collaboratif\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63165E03-EDBF-4D1A-8DA6-67F6C9B071ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079C6F5-DA8C-4CBA-AE11-8D3D2FA599BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Début</t>
   </si>
@@ -184,16 +184,58 @@
     <t>Durée (jours h)</t>
   </si>
   <si>
-    <t>Installation logiciels</t>
+    <t>pers</t>
   </si>
   <si>
-    <t>CAH</t>
+    <t>Travail préparatoire (0,5 jour)</t>
   </si>
   <si>
-    <t>Visualisations</t>
+    <t>Installation logiciels (0,5 jour)</t>
   </si>
   <si>
-    <t>pers</t>
+    <t>Centrer et reduire matrice Users*Items (0,5 jour)</t>
+  </si>
+  <si>
+    <t>Utiliser metrique cos (0,5 jour)</t>
+  </si>
+  <si>
+    <t>CAH (0,5 jour)</t>
+  </si>
+  <si>
+    <t>Matrices Users*Users Items*Items (2 jours)</t>
+  </si>
+  <si>
+    <t>Filtrage Collaboratif grande dimension (5 jours)</t>
+  </si>
+  <si>
+    <t>Variables lentes (1 jour)</t>
+  </si>
+  <si>
+    <t>Variables rapides (1 jour)</t>
+  </si>
+  <si>
+    <t>KNN (2 jours)</t>
+  </si>
+  <si>
+    <t>Kmeans (2 jours)</t>
+  </si>
+  <si>
+    <t>Visualisations (1 jour)</t>
+  </si>
+  <si>
+    <t>Qualite prediction notes (1 jour)</t>
+  </si>
+  <si>
+    <t>Rapport (8 jours)</t>
+  </si>
+  <si>
+    <t>Qualité (10 jours)</t>
+  </si>
+  <si>
+    <t>Management (10 jours)</t>
+  </si>
+  <si>
+    <t>Performance prediction temps de calcul (4 jours)</t>
   </si>
 </sst>
 </file>
@@ -750,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,13 +1004,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +1022,15 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,12 +1040,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1555,10 +1598,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12</c:v>
@@ -1641,7 +1684,7 @@
         <c:axId val="6451088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43483"/>
+          <c:max val="43484"/>
           <c:min val="43471"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1792,55 +1835,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>Travail préparatoire</c:v>
+                  <c:v>Travail préparatoire (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Installation logiciels</c:v>
+                  <c:v>Installation logiciels (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Centrer et reduire matrice Users*Items</c:v>
+                  <c:v>Centrer et reduire matrice Users*Items (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Utiliser metrique cos</c:v>
+                  <c:v>Utiliser metrique cos (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Matrices Users*Users Items*Items</c:v>
+                  <c:v>Matrices Users*Users Items*Items (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Filtrage Collaboratif grande dimension</c:v>
+                  <c:v>Filtrage Collaboratif grande dimension (5 jours)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Variables lentes</c:v>
+                  <c:v>Variables lentes (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Variables rapides</c:v>
+                  <c:v>Variables rapides (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>KMeans</c:v>
+                  <c:v>Kmeans (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KNN</c:v>
+                  <c:v>KNN (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CAH</c:v>
+                  <c:v>CAH (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Visualisations</c:v>
+                  <c:v>Visualisations (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Qualite prediction notes</c:v>
+                  <c:v>Qualite prediction notes (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Performance prediction temps de calcul</c:v>
+                  <c:v>Performance prediction temps de calcul (4 jours)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Management</c:v>
+                  <c:v>Management (10 jours)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Qualité</c:v>
+                  <c:v>Qualité (10 jours)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Rapport</c:v>
+                  <c:v>Rapport (8 jours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2272,55 +2315,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>Travail préparatoire</c:v>
+                  <c:v>Travail préparatoire (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Installation logiciels</c:v>
+                  <c:v>Installation logiciels (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Centrer et reduire matrice Users*Items</c:v>
+                  <c:v>Centrer et reduire matrice Users*Items (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Utiliser metrique cos</c:v>
+                  <c:v>Utiliser metrique cos (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Matrices Users*Users Items*Items</c:v>
+                  <c:v>Matrices Users*Users Items*Items (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Filtrage Collaboratif grande dimension</c:v>
+                  <c:v>Filtrage Collaboratif grande dimension (5 jours)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Variables lentes</c:v>
+                  <c:v>Variables lentes (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Variables rapides</c:v>
+                  <c:v>Variables rapides (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>KMeans</c:v>
+                  <c:v>Kmeans (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KNN</c:v>
+                  <c:v>KNN (2 jours)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CAH</c:v>
+                  <c:v>CAH (0,5 jour)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Visualisations</c:v>
+                  <c:v>Visualisations (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Qualite prediction notes</c:v>
+                  <c:v>Qualite prediction notes (1 jour)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Performance prediction temps de calcul</c:v>
+                  <c:v>Performance prediction temps de calcul (4 jours)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Management</c:v>
+                  <c:v>Management (10 jours)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Qualité</c:v>
+                  <c:v>Qualité (10 jours)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Rapport</c:v>
+                  <c:v>Rapport (8 jours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2374,13 +2417,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,7 +2497,7 @@
         <c:axId val="6451088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43483"/>
+          <c:max val="43484"/>
           <c:min val="43471"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2917,15 +2960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2940,8 +2983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13430251" y="1143000"/>
-          <a:ext cx="1257300" cy="3952875"/>
+          <a:off x="13154026" y="1152525"/>
+          <a:ext cx="1133474" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,15 +3031,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
+      <xdr:colOff>240029</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>649365</xdr:colOff>
+      <xdr:colOff>649979</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3071,13 +3114,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3092,7 +3135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18116550" y="2486025"/>
+          <a:off x="18488025" y="2476501"/>
           <a:ext cx="209550" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3267,15 +3310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3290,8 +3333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18392775" y="2419350"/>
-          <a:ext cx="1485900" cy="838200"/>
+          <a:off x="18716625" y="2428875"/>
+          <a:ext cx="1485900" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,13 +3408,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3388,8 +3431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13982700" y="1019175"/>
-          <a:ext cx="1304925" cy="4333875"/>
+          <a:off x="14297025" y="1019175"/>
+          <a:ext cx="1133475" cy="4324350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5332,7 +5375,7 @@
       <c r="IY6" s="1"/>
     </row>
     <row r="7" spans="1:259" ht="31.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="85" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -5605,7 +5648,7 @@
       <c r="IY7" s="1"/>
     </row>
     <row r="8" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
@@ -5876,7 +5919,7 @@
       <c r="IY8" s="1"/>
     </row>
     <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="85" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -6149,7 +6192,7 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="80"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6463,7 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -6693,7 +6736,7 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="81"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -6964,7 +7007,7 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="80"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
@@ -7235,7 +7278,7 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="85" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -7508,7 +7551,7 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -7779,7 +7822,7 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A16" s="80"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
@@ -8050,7 +8093,7 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -8063,7 +8106,7 @@
         <v>43483</v>
       </c>
       <c r="E17" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="29">
         <v>6</v>
@@ -8323,7 +8366,7 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A18" s="80"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
@@ -8334,7 +8377,7 @@
         <v>43483</v>
       </c>
       <c r="E18" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="32">
         <v>6</v>
@@ -8604,7 +8647,7 @@
         <v>43472</v>
       </c>
       <c r="D19" s="39">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E19" s="38">
         <v>12</v>
@@ -8877,7 +8920,7 @@
         <v>43472</v>
       </c>
       <c r="D20" s="39">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E20" s="38">
         <v>12</v>
@@ -9150,7 +9193,7 @@
         <v>43472</v>
       </c>
       <c r="D21" s="39">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E21" s="38">
         <v>12</v>
@@ -11244,23 +11287,23 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -11509,21 +11552,21 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -11772,19 +11815,19 @@
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -12033,19 +12076,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -12630,13 +12673,13 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="85" t="s">
+      <c r="V36" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -12893,11 +12936,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -13154,11 +13197,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -13415,11 +13458,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="84"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -13676,11 +13719,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="85"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="85"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="84"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -13937,11 +13980,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
+      <c r="V41" s="84"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="84"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -14459,13 +14502,13 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="82" t="s">
+      <c r="V43" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
+      <c r="W43" s="81"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -14722,11 +14765,11 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -14983,12 +15026,12 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="82" t="s">
+      <c r="V45" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
@@ -15246,13 +15289,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="82" t="s">
+      <c r="V46" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -22594,17 +22637,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="V46:Z46"/>
     <mergeCell ref="E29:S29"/>
     <mergeCell ref="G30:S32"/>
     <mergeCell ref="V36:Z41"/>
     <mergeCell ref="V43:Z44"/>
     <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C3673B30-6B6A-4991-B4FA-78872317CBE2}"/>
@@ -22628,7 +22671,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" customWidth="1"/>
     <col min="3" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
@@ -23438,7 +23481,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -23955,11 +23998,11 @@
       <c r="IY5" s="1"/>
     </row>
     <row r="6" spans="1:259" ht="31.8" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C6" s="28">
         <v>43471.5</v>
@@ -24230,10 +24273,10 @@
       <c r="IX6" s="1"/>
       <c r="IY6" s="1"/>
     </row>
-    <row r="7" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:259" ht="31.8" thickBot="1">
+      <c r="A7" s="89"/>
       <c r="B7" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="31">
         <v>43472</v>
@@ -24509,7 +24552,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C8" s="33">
         <v>43472.5</v>
@@ -24780,12 +24823,12 @@
       <c r="IX8" s="1"/>
       <c r="IY8" s="1"/>
     </row>
-    <row r="9" spans="1:259" ht="31.2" customHeight="1">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:259">
+      <c r="A9" s="85" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C9" s="28">
         <v>43472.5</v>
@@ -24796,7 +24839,7 @@
       <c r="E9" s="27">
         <v>0.5</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="79">
         <v>1.5</v>
       </c>
       <c r="G9" s="77">
@@ -25057,9 +25100,9 @@
       <c r="IY9" s="1"/>
     </row>
     <row r="10" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A10" s="80"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="24" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10" s="44">
         <v>43473</v>
@@ -25070,7 +25113,7 @@
       <c r="E10" s="45">
         <v>2</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="80">
         <v>6</v>
       </c>
       <c r="G10" s="77">
@@ -25331,11 +25374,11 @@
       <c r="IY10" s="1"/>
     </row>
     <row r="11" spans="1:259" ht="31.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="46">
         <v>43475</v>
@@ -25346,7 +25389,7 @@
       <c r="E11" s="65">
         <v>7</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="79">
         <v>14</v>
       </c>
       <c r="G11" s="77">
@@ -25607,9 +25650,9 @@
       <c r="IY11" s="1"/>
     </row>
     <row r="12" spans="1:259">
-      <c r="A12" s="81"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C12" s="35">
         <v>43473</v>
@@ -25881,9 +25924,9 @@
       <c r="IY12" s="1"/>
     </row>
     <row r="13" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A13" s="80"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="24" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C13" s="37">
         <v>43473</v>
@@ -25894,7 +25937,7 @@
       <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="80">
         <v>5</v>
       </c>
       <c r="G13" s="77">
@@ -26155,11 +26198,11 @@
       <c r="IY13" s="1"/>
     </row>
     <row r="14" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="85" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C14" s="56">
         <v>43475</v>
@@ -26431,9 +26474,9 @@
       <c r="IY14" s="1"/>
     </row>
     <row r="15" spans="1:259" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="88"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C15" s="51">
         <v>43475</v>
@@ -26705,9 +26748,9 @@
       <c r="IY15" s="1"/>
     </row>
     <row r="16" spans="1:259">
-      <c r="A16" s="88"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="51">
         <v>43479</v>
@@ -26979,9 +27022,9 @@
       <c r="IY16" s="1"/>
     </row>
     <row r="17" spans="1:259" ht="16.2" thickBot="1">
-      <c r="A17" s="80"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="58" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C17" s="54">
         <v>43479</v>
@@ -27253,11 +27296,11 @@
       <c r="IY17" s="1"/>
     </row>
     <row r="18" spans="1:259">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C18" s="47">
         <v>43480</v>
@@ -27268,7 +27311,7 @@
       <c r="E18" s="65">
         <v>1</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="79">
         <v>6</v>
       </c>
       <c r="G18" s="77">
@@ -27529,9 +27572,9 @@
       <c r="IY18" s="1"/>
     </row>
     <row r="19" spans="1:259" ht="31.8" thickBot="1">
-      <c r="A19" s="80"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="24" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C19" s="52">
         <v>43479</v>
@@ -27542,7 +27585,7 @@
       <c r="E19" s="45">
         <v>4</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="80">
         <v>6</v>
       </c>
       <c r="G19" s="77">
@@ -27807,23 +27850,23 @@
         <v>29</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C20" s="39">
         <v>43472</v>
       </c>
       <c r="D20" s="39">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E20" s="38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="75">
         <v>1.5</v>
       </c>
       <c r="G20" s="77">
         <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
+        <v>0.125</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -28083,23 +28126,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C21" s="39">
         <v>43472</v>
       </c>
       <c r="D21" s="39">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E21" s="38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="74">
         <v>1.5</v>
       </c>
       <c r="G21" s="77">
         <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
+        <v>0.125</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -28359,23 +28402,23 @@
         <v>30</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C22" s="60">
         <v>43474</v>
       </c>
       <c r="D22" s="60">
-        <v>43483</v>
+        <v>43485</v>
       </c>
       <c r="E22" s="61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="75">
         <v>20</v>
       </c>
       <c r="G22" s="77">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -29169,7 +29212,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="91"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -30465,23 +30508,23 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -30730,21 +30773,21 @@
       <c r="D31" s="4"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -30993,19 +31036,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -31254,19 +31297,19 @@
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -31851,13 +31894,13 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="85" t="s">
+      <c r="V37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="W37" s="85"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -32114,11 +32157,11 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -32375,11 +32418,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="84"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -32636,11 +32679,11 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="85"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="85"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="84"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -32897,11 +32940,11 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
+      <c r="V41" s="84"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="84"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -33158,11 +33201,11 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -33680,13 +33723,13 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="82" t="s">
+      <c r="V44" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -33943,11 +33986,11 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -34204,12 +34247,12 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="82" t="s">
+      <c r="V46" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="1"/>
@@ -34467,13 +34510,13 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="82" t="s">
+      <c r="V47" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -41815,17 +41858,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G31:S33"/>
+    <mergeCell ref="V37:Z42"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="V47:Z47"/>
     <mergeCell ref="E30:S30"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G31:S33"/>
-    <mergeCell ref="V37:Z42"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="V47:Z47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" xr:uid="{1FB0C6A9-BDA8-4353-9214-CBC7D2DD48EA}"/>
